--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -5328,12 +5328,12 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Evalúe si la versión más reciente de los registros de flujo de NSG proporciona el nivel de detalle que necesita.</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6169,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6197,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>No desarrolle una solución personalizada para reflejar el tráfico. Aunque este enfoque puede ser aceptable para escenarios a pequeña escala, no lo recomendamos a escala debido a la complejidad y los problemas de compatibilidad que pueden surgir.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,15 +6219,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,7 +6252,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6261,7 +6269,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6273,7 +6281,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,7 +6302,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores. Firewall Manager ahora está disponible de forma general tanto para Virtual WAN como para redes virtuales normales.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6323,7 +6331,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,7 +6352,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,14 +6374,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6394,7 +6402,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6411,19 +6419,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6444,7 +6452,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6461,7 +6469,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6473,7 +6481,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6494,7 +6502,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,19 +6519,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6544,7 +6552,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,19 +6569,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6589,12 +6597,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6611,19 +6619,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6639,12 +6647,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6661,19 +6669,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,7 +6702,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6711,19 +6719,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,7 +6752,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6761,19 +6769,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,7 +6802,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,14 +6824,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6844,7 +6852,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,14 +6874,14 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6894,7 +6902,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6923,7 +6931,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6944,7 +6952,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6973,7 +6981,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6989,12 +6997,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7011,19 +7019,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7039,12 +7042,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7061,19 +7064,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7114,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7144,7 +7147,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7159,11 +7162,7 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H132" s="16" t="n"/>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7173,7 +7172,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7194,7 +7193,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7210,7 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7223,7 +7222,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7244,7 +7243,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7266,14 +7265,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7294,7 +7293,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7316,14 +7315,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7344,7 +7343,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7366,14 +7365,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7389,12 +7388,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7411,19 +7410,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7444,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7461,19 +7460,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7494,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,7 +7512,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7539,7 +7533,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7557,13 +7551,18 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7584,7 +7583,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7606,14 +7605,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7634,7 +7633,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7663,7 +7662,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7684,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7702,18 +7701,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7734,7 +7728,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7752,13 +7746,18 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7779,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,18 +7796,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7829,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7853,7 +7847,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7874,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7891,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7919,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7936,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7954,23 +7948,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7981,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8009,13 +8003,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8026,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8054,7 +8048,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8071,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8089,7 +8083,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8099,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8116,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8144,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8161,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8189,13 +8183,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8206,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8234,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8251,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8279,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8296,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8324,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8341,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8369,7 +8363,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8386,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8414,13 +8408,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8459,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8476,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8504,7 +8498,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8521,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8549,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8594,13 +8588,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8634,18 +8628,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8684,13 +8678,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8729,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8746,14 +8740,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8774,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8798,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8819,7 +8813,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8843,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8864,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8888,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8909,13 +8903,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8933,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8954,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8978,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8999,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9023,7 +9017,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9044,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9061,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9089,7 +9083,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9106,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9129,18 +9123,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9151,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9179,13 +9173,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9224,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9241,14 +9235,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9269,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9293,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9314,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9338,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9359,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9383,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9404,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9428,7 +9422,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9449,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9466,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9494,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9511,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9539,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9556,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9584,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9601,14 +9595,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9629,7 +9623,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9653,7 +9647,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9669,12 +9663,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9691,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9719,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9736,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9764,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9781,14 +9775,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9809,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9833,7 +9827,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9854,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9871,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9899,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9916,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9944,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9961,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9989,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10006,14 +10000,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10034,7 +10028,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10058,7 +10052,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10067,45 +10061,15 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B196" s="22" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C196" s="22" t="inlineStr">
-        <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
-        </is>
-      </c>
+      <c r="A196" s="22" t="n"/>
+      <c r="B196" s="22" t="n"/>
+      <c r="C196" s="22" t="n"/>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E196" s="22" t="n"/>
       <c r="G196" s="22" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L196" s="26" t="n"/>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11825,7 +11789,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -8858,7 +8858,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar los registros de proveedores de recursos en los niveles de suscripción o grupo de administración</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -4305,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4489,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door. Reduzca el tráfico que Front Door envía a su aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4530,18 +4530,18 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,15 +4598,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,15 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I84" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4832,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4865,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4882,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4919,7 +4915,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,13 +4965,13 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4990,7 +4990,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5006,18 +5006,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,19 +5028,15 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5061,7 +5057,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5078,7 +5074,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5090,7 +5086,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5111,7 +5107,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5140,7 +5136,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5161,7 +5157,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5178,7 +5174,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5190,7 +5186,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5211,7 +5207,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5228,7 +5224,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5240,7 +5236,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5261,7 +5257,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5274,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5290,7 +5286,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5311,7 +5307,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5328,19 +5324,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5361,7 +5357,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5378,19 +5374,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5411,7 +5407,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5428,7 +5424,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5440,7 +5436,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5461,7 +5457,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5478,7 +5474,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5490,7 +5486,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5511,7 +5507,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5528,7 +5524,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5540,7 +5536,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5561,7 +5557,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5578,7 +5574,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5590,7 +5586,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5606,12 +5602,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5628,19 +5624,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5661,7 +5657,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5690,7 +5686,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5711,7 +5707,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5740,7 +5736,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5761,7 +5757,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5790,7 +5786,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5811,7 +5807,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5828,19 +5824,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5861,7 +5857,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5878,7 +5874,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
@@ -5890,7 +5886,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5907,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5940,7 +5936,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5961,7 +5957,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5981,12 +5977,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I108" s="16" t="n"/>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,19 +6024,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6052,12 +6048,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,19 +6070,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6148,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,19 +6170,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6202,7 +6199,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6219,7 +6216,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6231,7 +6228,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6252,7 +6249,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6281,7 +6278,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6302,7 +6299,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6331,7 +6328,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6352,7 +6349,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6374,14 +6371,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6402,7 +6399,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6419,7 +6416,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6431,7 +6428,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6452,7 +6449,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6469,7 +6466,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6481,7 +6478,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6502,7 +6499,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6524,14 +6521,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6552,7 +6549,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6569,19 +6566,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6597,12 +6594,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6619,19 +6616,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6652,7 +6649,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6674,14 +6671,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6702,7 +6699,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6719,19 +6716,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6752,7 +6749,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6774,14 +6771,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6802,7 +6799,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6824,14 +6821,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6852,7 +6849,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6881,7 +6878,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6902,7 +6899,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6931,7 +6928,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6952,7 +6949,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6981,7 +6978,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6997,12 +6994,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7019,14 +7016,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7047,7 +7049,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7064,19 +7066,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7097,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7114,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7147,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7162,7 +7159,11 @@
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7172,7 +7173,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7193,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7208,11 +7209,7 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H133" s="16" t="n"/>
       <c r="I133" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7222,7 +7219,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7243,7 +7240,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,14 +7262,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7293,7 +7290,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,14 +7312,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,7 +7340,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,14 +7362,14 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7388,12 +7385,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7410,19 +7407,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7440,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7457,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7490,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7512,7 +7514,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7533,7 +7535,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7551,18 +7553,13 @@
       <c r="H140" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7583,7 +7580,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,14 +7602,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7633,7 +7630,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7662,7 +7659,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7680,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7701,13 +7698,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7728,7 +7730,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7746,18 +7748,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7796,13 +7793,18 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7825,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7847,7 +7849,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7870,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7887,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7915,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7930,14 +7932,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,23 +7950,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7975,14 +7977,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8005,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8022,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8048,7 +8050,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8065,14 +8067,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8085,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,13 +8095,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8110,14 +8112,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,13 +8140,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8155,14 +8157,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8185,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8202,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8230,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8247,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8275,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8292,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8320,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8337,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,7 +8365,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8380,14 +8382,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8410,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8427,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8455,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8472,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,7 +8500,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8515,14 +8517,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,13 +8545,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8560,14 +8562,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,13 +8590,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8607,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,18 +8630,18 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8650,14 +8652,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8680,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8697,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8725,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8742,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8770,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8792,7 +8794,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,7 +8815,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8837,7 +8839,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,13 +8860,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8875,14 +8877,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8905,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8922,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8950,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8972,7 +8974,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8995,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9017,7 +9019,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9040,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9057,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,7 +9085,7 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
@@ -9100,14 +9102,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,18 +9125,18 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9145,14 +9147,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9175,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9192,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9220,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9237,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9265,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9287,7 +9289,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9310,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9332,7 +9334,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9355,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9377,7 +9379,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9400,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9422,7 +9424,7 @@
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9445,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9462,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9490,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9507,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9535,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9552,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9597,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,7 +9625,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9647,7 +9649,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9665,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9687,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9732,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9760,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9777,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9805,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9827,7 +9829,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9850,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9867,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9895,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9912,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9940,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9957,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9985,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10002,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10028,7 +10030,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10052,7 +10054,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10063,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11821,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,19 +1122,15 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,7 +1151,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1172,19 +1168,19 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1205,13 +1201,13 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1222,19 +1218,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1255,13 +1251,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1272,19 +1268,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1305,13 +1301,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1322,19 +1318,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1355,7 +1351,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1372,19 +1368,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1405,13 +1401,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1422,19 +1418,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1455,13 +1451,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1472,19 +1468,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1505,7 +1501,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1522,19 +1518,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1555,7 +1551,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1572,19 +1568,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1605,7 +1601,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1622,19 +1618,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1655,7 +1651,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1677,14 +1673,14 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1705,7 +1701,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1722,19 +1718,19 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1755,7 +1751,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1772,19 +1768,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1805,7 +1801,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1818,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,17 +1841,17 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1868,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1901,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1918,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1951,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1972,19 +1968,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2001,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2051,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2084,7 +2080,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2105,7 +2101,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2122,14 +2118,19 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2150,7 +2151,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2167,14 +2168,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2212,14 +2213,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2240,13 +2241,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2264,7 +2265,7 @@
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2285,13 +2286,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2302,7 +2303,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2310,7 +2311,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2331,13 +2332,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2348,19 +2349,15 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I33" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I33" s="16" t="n"/>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2381,7 +2378,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2398,19 +2395,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2431,13 +2428,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2448,19 +2445,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2481,13 +2478,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2498,19 +2495,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2531,13 +2528,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2548,19 +2545,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2581,7 +2578,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2598,19 +2595,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2621,23 +2618,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,15 +2645,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2677,13 +2678,13 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2694,7 +2695,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2702,7 +2703,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2718,12 +2719,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2740,19 +2741,15 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I41" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="n"/>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2773,7 +2770,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2788,13 +2785,21 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2815,7 +2820,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2830,21 +2835,13 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H43" s="16" t="n"/>
+      <c r="I43" s="16" t="n"/>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2865,7 +2862,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2894,7 +2891,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2915,7 +2912,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2932,19 +2929,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2965,7 +2962,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2982,19 +2979,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3032,19 +3029,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3065,7 +3062,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3082,19 +3079,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3115,13 +3112,13 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3132,14 +3129,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3160,13 +3162,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3177,7 +3179,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3185,7 +3187,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3206,7 +3208,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3223,7 +3225,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3231,7 +3233,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3252,7 +3254,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3269,7 +3271,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3277,7 +3279,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3298,7 +3300,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3315,14 +3317,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3343,7 +3345,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3360,7 +3362,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3368,7 +3370,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3389,7 +3391,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3406,14 +3408,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3434,7 +3436,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3451,14 +3453,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3479,7 +3481,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3496,14 +3498,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3524,7 +3526,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3541,14 +3543,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3569,7 +3571,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3586,14 +3588,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3614,7 +3616,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3631,14 +3633,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3649,17 +3651,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3676,19 +3678,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3699,17 +3696,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, asegúrese de que la protección y las directivas de WAF estén habilitadas en las puertas de enlace de aplicaciones</t>
+          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,19 +3723,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3759,7 +3751,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,7 +3768,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
@@ -3788,7 +3780,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3801,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, asegúrese de que la protección y las directivas de WAF estén habilitadas en las puertas de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3818,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3851,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,7 +3868,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3888,7 +3880,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3901,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3918,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3951,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3981,14 +3973,14 @@
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4001,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,7 +4018,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
@@ -4038,7 +4030,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,7 +4051,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4088,7 +4080,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4101,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4118,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4159,7 +4151,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,19 +4168,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4204,18 +4196,18 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4226,15 +4218,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,12 +4246,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4272,19 +4268,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4300,12 +4296,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4346,18 +4342,18 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,15 +4364,19 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4506,7 +4506,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4514,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,7 +4552,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4560,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,19 +4598,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4626,18 +4622,18 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,15 +4690,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,7 +4740,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4748,7 +4748,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4786,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4794,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,19 +4832,15 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I85" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4865,7 +4861,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4882,19 +4878,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4915,7 +4907,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4924,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4957,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,15 +4974,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5011,13 +5007,13 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5028,15 +5024,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,19 +5074,15 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5102,18 +5098,18 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5124,19 +5120,15 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5157,7 +5149,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5174,7 +5166,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5186,7 +5178,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5207,7 +5199,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5224,7 +5216,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5236,7 +5228,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5257,7 +5249,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5274,7 +5266,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5286,7 +5278,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5307,7 +5299,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5324,7 +5316,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5336,7 +5328,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5357,7 +5349,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5374,19 +5366,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5407,7 +5399,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5424,7 +5416,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5436,7 +5428,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5457,7 +5449,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5474,19 +5466,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5507,7 +5499,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5524,7 +5516,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
@@ -5536,7 +5528,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5557,7 +5549,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5574,7 +5566,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5586,7 +5578,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5607,7 +5599,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5624,7 +5616,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5636,7 +5628,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5652,12 +5644,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5674,19 +5666,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5702,12 +5694,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5724,19 +5716,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5752,12 +5744,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5774,19 +5766,15 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5802,12 +5790,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t>Considere usar Bastion para conectarse de forma segura a su red.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5824,19 +5812,15 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5857,7 +5841,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5874,19 +5858,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5907,7 +5891,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5924,19 +5908,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5957,7 +5941,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5974,19 +5958,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6007,7 +5991,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6024,15 +6008,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6053,7 +6041,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6070,7 +6058,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6082,7 +6070,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6098,12 +6086,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,19 +6108,19 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6148,12 +6136,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,15 +6158,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6194,12 +6186,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6216,19 +6208,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6244,12 +6232,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6266,19 +6254,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6294,12 +6282,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6316,19 +6304,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6344,12 +6332,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6366,19 +6354,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6399,7 +6382,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6416,19 +6399,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6449,7 +6432,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6466,19 +6449,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6499,7 +6482,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6516,19 +6499,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6549,7 +6532,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6566,19 +6549,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6599,7 +6582,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6616,19 +6599,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6644,12 +6627,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6666,19 +6649,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6694,12 +6677,12 @@
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6716,19 +6699,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6744,12 +6727,12 @@
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6766,19 +6749,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6794,12 +6777,12 @@
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6816,19 +6799,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6849,7 +6832,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6866,19 +6849,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6899,7 +6882,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6916,7 +6899,7 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -6928,7 +6911,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6949,7 +6932,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6971,14 +6954,14 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6999,7 +6982,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7021,14 +7004,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7044,12 +7027,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7066,14 +7049,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7089,12 +7077,12 @@
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,19 +7099,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7139,12 +7127,12 @@
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,19 +7149,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7189,12 +7177,12 @@
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7209,17 +7197,21 @@
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7240,7 +7232,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7257,19 +7249,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7290,7 +7277,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7307,19 +7294,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7340,7 +7327,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7357,7 +7344,7 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7369,7 +7356,7 @@
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7390,7 +7377,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7405,21 +7392,17 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H137" s="16" t="n"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7435,12 +7418,12 @@
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7457,19 +7440,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7485,12 +7468,12 @@
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7507,14 +7490,19 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7530,12 +7518,12 @@
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7552,14 +7540,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7575,12 +7568,12 @@
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7597,19 +7590,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7630,7 +7623,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7647,19 +7640,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7680,7 +7673,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,18 +7691,13 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7730,7 +7718,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7754,7 +7742,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7775,7 +7763,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7797,14 +7785,14 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7825,7 +7813,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7843,13 +7831,18 @@
       <c r="H146" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7870,7 +7863,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7888,13 +7881,18 @@
       <c r="H147" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7915,7 +7913,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7932,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7960,7 +7958,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7977,14 +7975,19 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7995,23 +7998,23 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8022,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8040,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8067,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8085,17 +8088,17 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8112,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8130,23 +8133,23 @@
     <row r="153" ht="16.5" customHeight="1" s="13">
       <c r="A153" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8157,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8175,7 +8178,7 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
@@ -8185,13 +8188,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8202,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8220,7 +8223,7 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
@@ -8230,13 +8233,13 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8247,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8265,7 +8268,7 @@
     <row r="156" ht="16.5" customHeight="1" s="13">
       <c r="A156" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B156" s="22" t="inlineStr">
@@ -8275,13 +8278,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8292,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8320,7 +8323,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8337,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8365,13 +8368,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8382,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8410,7 +8413,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8427,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8455,13 +8458,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8472,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8500,13 +8503,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8517,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8545,13 +8548,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8562,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8590,13 +8593,13 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8607,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8635,7 +8638,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8652,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8675,18 +8678,18 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8697,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8720,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8742,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8765,18 +8768,18 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8787,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8810,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8832,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8860,13 +8863,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8884,7 +8887,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8905,13 +8908,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8922,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8950,7 +8953,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8974,7 +8977,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8995,7 +8998,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9019,7 +9022,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9064,7 +9067,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9085,13 +9088,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9102,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9130,7 +9133,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9147,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9170,18 +9173,18 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9192,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9215,12 +9218,12 @@
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9237,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9260,12 +9263,12 @@
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9282,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9305,12 +9308,12 @@
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9327,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9350,12 +9353,12 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9372,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9400,13 +9403,13 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9417,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9445,7 +9448,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9462,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9507,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9535,7 +9538,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9559,7 +9562,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9580,7 +9583,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9597,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9625,7 +9628,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9649,7 +9652,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9670,7 +9673,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9694,7 +9697,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9710,12 +9713,12 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9732,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9755,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9777,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9800,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9822,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9845,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9867,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9890,12 +9893,12 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9912,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9940,7 +9943,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9957,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9985,7 +9988,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10002,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10030,7 +10033,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10047,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10075,7 +10078,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10092,14 +10095,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10108,75 +10111,225 @@
       <c r="P196" s="26" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1" s="13">
-      <c r="A197" s="22" t="n"/>
-      <c r="B197" s="22" t="n"/>
-      <c r="C197" s="22" t="n"/>
+      <c r="A197" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B197" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C197" s="22" t="inlineStr">
+        <is>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+        </is>
+      </c>
       <c r="D197" s="22" t="n"/>
-      <c r="E197" s="22" t="n"/>
+      <c r="E197" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G197" s="22" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
-      <c r="L197" s="26" t="n"/>
+      <c r="L197" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M197" s="26" t="n"/>
       <c r="N197" s="26" t="n"/>
       <c r="O197" s="26" t="n"/>
       <c r="P197" s="26" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1" s="13">
-      <c r="A198" s="22" t="n"/>
-      <c r="B198" s="22" t="n"/>
-      <c r="C198" s="22" t="n"/>
+      <c r="A198" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B198" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C198" s="22" t="inlineStr">
+        <is>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+        </is>
+      </c>
       <c r="D198" s="22" t="n"/>
-      <c r="E198" s="22" t="n"/>
+      <c r="E198" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G198" s="22" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
-      <c r="L198" s="26" t="n"/>
+      <c r="L198" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M198" s="26" t="n"/>
       <c r="N198" s="26" t="n"/>
       <c r="O198" s="26" t="n"/>
       <c r="P198" s="26" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1" s="13">
-      <c r="A199" s="22" t="n"/>
-      <c r="B199" s="22" t="n"/>
-      <c r="C199" s="22" t="n"/>
+      <c r="A199" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B199" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C199" s="22" t="inlineStr">
+        <is>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+        </is>
+      </c>
       <c r="D199" s="22" t="n"/>
-      <c r="E199" s="22" t="n"/>
+      <c r="E199" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G199" s="22" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
-      <c r="L199" s="26" t="n"/>
+      <c r="L199" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M199" s="26" t="n"/>
       <c r="N199" s="26" t="n"/>
       <c r="O199" s="26" t="n"/>
       <c r="P199" s="26" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1" s="13">
-      <c r="A200" s="22" t="n"/>
-      <c r="B200" s="22" t="n"/>
-      <c r="C200" s="22" t="n"/>
+      <c r="A200" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B200" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C200" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+        </is>
+      </c>
       <c r="D200" s="22" t="n"/>
-      <c r="E200" s="22" t="n"/>
+      <c r="E200" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G200" s="22" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
-      <c r="L200" s="26" t="n"/>
+      <c r="L200" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M200" s="26" t="n"/>
       <c r="N200" s="26" t="n"/>
       <c r="O200" s="26" t="n"/>
       <c r="P200" s="26" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1" s="13">
-      <c r="A201" s="22" t="n"/>
-      <c r="B201" s="22" t="n"/>
-      <c r="C201" s="22" t="n"/>
+      <c r="A201" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B201" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C201" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D201" s="22" t="n"/>
-      <c r="E201" s="22" t="n"/>
+      <c r="E201" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G201" s="22" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
-      <c r="L201" s="26" t="n"/>
+      <c r="L201" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M201" s="26" t="n"/>
       <c r="N201" s="26" t="n"/>
       <c r="O201" s="26" t="n"/>
@@ -11821,7 +11974,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -12104,7 +12257,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -10275,7 +10275,7 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
@@ -10320,7 +10320,7 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,19 +1168,15 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1201,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1218,19 +1214,19 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1251,13 +1247,13 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1268,19 +1264,19 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1301,13 +1297,13 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1318,19 +1314,19 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1351,13 +1347,13 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1368,19 +1364,19 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1401,7 +1397,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1418,19 +1414,19 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1451,13 +1447,13 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1468,19 +1464,19 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1501,13 +1497,13 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1518,19 +1514,19 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1551,7 +1547,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1568,19 +1564,19 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1601,7 +1597,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1618,19 +1614,19 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1668,19 +1664,19 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1701,7 +1697,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1723,14 +1719,14 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1751,7 +1747,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1768,19 +1764,19 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1801,7 +1797,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1818,19 +1814,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1851,7 +1847,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1868,19 +1864,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1891,17 +1887,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1918,19 +1914,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1951,7 +1947,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1968,19 +1964,19 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2001,7 +1997,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2018,19 +2014,19 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2051,7 +2047,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2080,7 +2076,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2101,7 +2097,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2130,7 +2126,7 @@
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2151,7 +2147,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2168,14 +2164,19 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2213,14 +2214,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2286,13 +2287,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2311,7 +2312,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2349,7 +2350,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2357,7 +2358,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,19 +2396,15 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I34" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I34" s="16" t="n"/>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2428,7 +2425,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2445,19 +2442,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2478,13 +2475,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2495,19 +2492,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2528,13 +2525,13 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2545,19 +2542,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2578,13 +2575,13 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2595,19 +2592,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2628,7 +2625,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2645,19 +2642,19 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2668,23 +2665,23 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2695,15 +2692,19 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2724,13 +2725,13 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,7 +2742,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2749,7 +2750,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2765,12 +2766,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2787,19 +2788,15 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2820,7 +2817,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2835,13 +2832,21 @@
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="16" t="n"/>
-      <c r="I43" s="16" t="n"/>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2862,7 +2867,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2877,21 +2882,13 @@
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
-      <c r="H44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H44" s="16" t="n"/>
+      <c r="I44" s="16" t="n"/>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2912,7 +2909,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2941,7 +2938,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2962,7 +2959,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2979,19 +2976,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3012,7 +3009,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3029,19 +3026,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3062,7 +3059,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3079,19 +3076,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3112,7 +3109,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3129,19 +3126,19 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,13 +3159,13 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3179,15 +3176,19 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I50" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I50" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,13 +3209,13 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,7 +3226,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3233,7 +3234,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3254,7 +3255,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3271,7 +3272,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3279,7 +3280,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3300,7 +3301,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3317,14 +3318,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3362,7 +3363,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3370,7 +3371,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3391,7 +3392,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3408,14 +3409,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3436,7 +3437,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3453,14 +3454,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3481,7 +3482,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3498,14 +3499,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3526,7 +3527,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3543,14 +3544,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3588,14 +3589,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3633,14 +3634,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3661,7 +3662,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3678,14 +3679,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3706,7 +3707,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3723,14 +3724,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3741,17 +3742,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3768,19 +3769,15 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="n"/>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, asegúrese de que la protección y las directivas de WAF estén habilitadas en las puertas de enlace de aplicaciones</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3818,7 +3815,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
@@ -3830,7 +3827,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3851,7 +3848,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
+          <t>Para la entrega segura de aplicaciones HTTP/S, asegúrese de que la protección y las directivas de WAF estén habilitadas en las puertas de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3868,7 +3865,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
@@ -3880,7 +3877,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3901,7 +3898,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
+          <t>Asegúrese de que está utilizando SKU de Application Gateway v2</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3918,19 +3915,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3951,7 +3948,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3968,19 +3965,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4001,7 +3998,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4023,14 +4020,14 @@
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4051,7 +4048,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4080,7 +4077,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4101,7 +4098,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4118,7 +4115,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
@@ -4130,7 +4127,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4151,7 +4148,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4168,7 +4165,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4180,7 +4177,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4201,13 +4198,13 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4218,19 +4215,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4251,13 +4248,13 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4273,14 +4270,14 @@
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4296,12 +4293,12 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4318,15 +4315,19 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,7 +4348,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4364,19 +4365,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4392,12 +4389,12 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4414,15 +4411,19 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4444,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4461,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4469,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4489,13 +4490,13 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4507,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4514,7 +4515,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,13 +4536,13 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4553,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4560,7 +4561,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,13 +4582,13 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4599,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4607,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,13 +4628,13 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,7 +4645,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4653,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4668,18 +4669,18 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,19 +4691,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4720,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4737,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,7 +4787,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4794,7 +4795,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4815,7 +4816,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4832,7 +4833,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4840,7 +4841,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4861,7 +4862,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4878,7 +4879,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4886,7 +4887,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4907,7 +4908,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4924,19 +4925,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4974,19 +4971,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5024,19 +5021,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5057,7 +5054,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5074,15 +5071,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5103,13 +5104,13 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5120,7 +5121,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5128,7 +5129,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5144,18 +5145,18 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,19 +5167,15 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5199,7 +5196,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5216,7 +5213,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5228,7 +5225,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5249,7 +5246,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5278,7 +5275,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5299,7 +5296,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5316,7 +5313,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5328,7 +5325,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5349,7 +5346,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5366,7 +5363,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5378,7 +5375,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5416,7 +5413,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5428,7 +5425,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5449,7 +5446,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5466,19 +5463,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5499,7 +5496,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5516,19 +5513,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5549,7 +5546,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5566,7 +5563,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5578,7 +5575,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5599,7 +5596,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5616,7 +5613,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
@@ -5628,7 +5625,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5649,7 +5646,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5666,7 +5663,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
@@ -5678,7 +5675,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5699,7 +5696,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5716,7 +5713,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5728,7 +5725,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5749,7 +5746,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5766,15 +5763,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5795,7 +5796,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Considere usar Bastion para conectarse de forma segura a su red.</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5812,7 +5813,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5820,7 +5821,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5836,12 +5837,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Considere usar Bastion para conectarse de forma segura a su red.</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5858,19 +5859,15 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5891,7 +5888,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5920,7 +5917,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5941,7 +5938,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5970,7 +5967,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5991,7 +5988,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6020,7 +6017,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6041,7 +6038,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6058,19 +6055,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6091,7 +6088,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6108,7 +6105,7 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6117,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6141,7 +6138,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6170,7 +6167,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6191,7 +6188,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6211,12 +6208,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6237,7 +6238,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6254,19 +6255,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6282,12 +6279,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6304,19 +6301,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6337,7 +6334,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6354,14 +6351,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6377,12 +6379,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Inspección</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6399,19 +6401,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6432,7 +6429,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6449,7 +6446,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6461,7 +6458,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6482,7 +6479,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6511,7 +6508,7 @@
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6532,7 +6529,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6561,7 +6558,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6582,7 +6579,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6604,14 +6601,14 @@
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6632,7 +6629,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6649,7 +6646,7 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
@@ -6661,7 +6658,7 @@
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6682,7 +6679,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6699,7 +6696,7 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
@@ -6711,7 +6708,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6732,7 +6729,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6754,14 +6751,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6782,7 +6779,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6799,19 +6796,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6827,12 +6824,12 @@
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6849,19 +6846,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6882,7 +6879,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6904,14 +6901,14 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6932,7 +6929,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6949,19 +6946,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6982,7 +6979,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7004,14 +7001,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7032,7 +7029,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7054,14 +7051,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7082,7 +7079,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7111,7 +7108,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7132,7 +7129,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7161,7 +7158,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7182,7 +7179,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7211,7 +7208,7 @@
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7227,12 +7224,12 @@
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7249,14 +7246,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7277,7 +7279,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7294,19 +7296,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7327,7 +7324,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7344,19 +7341,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7377,7 +7374,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7392,7 +7389,11 @@
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7402,7 +7403,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7438,11 +7439,7 @@
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H138" s="16" t="n"/>
       <c r="I138" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7452,7 +7449,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7473,7 +7470,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7495,14 +7492,14 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7523,7 +7520,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7545,14 +7542,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7573,7 +7570,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7595,14 +7592,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7618,12 +7615,12 @@
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7640,19 +7637,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7673,7 +7670,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,14 +7687,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7718,7 +7720,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7742,7 +7744,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7763,7 +7765,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7781,18 +7783,13 @@
       <c r="H145" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7813,7 +7810,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7835,14 +7832,14 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7863,7 +7860,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7892,7 +7889,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7913,7 +7910,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7931,13 +7928,18 @@
       <c r="H148" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7958,7 +7960,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7976,18 +7978,13 @@
       <c r="H149" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8005,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8026,13 +8023,18 @@
       <c r="H150" s="16" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8053,7 +8055,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8077,7 +8079,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,7 +8100,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8115,14 +8117,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,7 +8145,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8160,14 +8162,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8178,23 +8180,23 @@
     <row r="154" ht="16.5" customHeight="1" s="13">
       <c r="A154" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8205,14 +8207,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8223,23 +8225,23 @@
     <row r="155" ht="16.5" customHeight="1" s="13">
       <c r="A155" s="22" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t xml:space="preserve">Topología y conectividad de red </t>
         </is>
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8250,14 +8252,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,13 +8280,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8295,14 +8297,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8313,7 +8315,7 @@
     <row r="157" ht="16.5" customHeight="1" s="13">
       <c r="A157" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B157" s="22" t="inlineStr">
@@ -8323,13 +8325,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8340,14 +8342,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8358,7 +8360,7 @@
     <row r="158" ht="16.5" customHeight="1" s="13">
       <c r="A158" s="22" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B158" s="22" t="inlineStr">
@@ -8368,7 +8370,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8385,14 +8387,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8415,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8432,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,13 +8460,13 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
       <c r="E160" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8475,14 +8477,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,7 +8505,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8520,14 +8522,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,7 +8550,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8565,14 +8567,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8593,7 +8595,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8610,14 +8612,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8640,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8657,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,13 +8685,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8700,14 +8702,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8730,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8745,14 +8747,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,13 +8775,13 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
       <c r="E167" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8790,14 +8792,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,7 +8820,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8835,14 +8837,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,18 +8860,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8880,14 +8882,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,12 +8905,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8925,14 +8927,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,13 +8955,13 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
       <c r="E171" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8977,7 +8979,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +9000,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9017,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9045,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9067,7 +9069,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9088,13 +9090,13 @@
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9107,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,7 +9135,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9157,7 +9159,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,13 +9180,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9195,14 +9197,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9225,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9249,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9270,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9285,14 +9287,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9315,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9330,14 +9332,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9360,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9375,14 +9377,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,18 +9400,18 @@
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9420,14 +9422,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,12 +9445,12 @@
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9467,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,13 +9495,13 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9510,14 +9512,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9540,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9557,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9585,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9609,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9628,7 +9630,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9652,7 +9654,7 @@
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9675,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9697,7 +9699,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9720,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9737,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9765,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9789,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9810,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9827,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9855,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9877,7 +9879,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9900,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9917,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,12 +9940,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9962,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,12 +9985,12 @@
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10005,14 +10007,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10033,7 +10035,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10050,14 +10052,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10078,7 +10080,7 @@
       </c>
       <c r="C196" s="22" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D196" s="22" t="n"/>
@@ -10095,14 +10097,14 @@
       <c r="G196" s="22" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
       <c r="L196" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="26" t="n"/>
@@ -10123,7 +10125,7 @@
       </c>
       <c r="C197" s="22" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D197" s="22" t="n"/>
@@ -10140,14 +10142,14 @@
       <c r="G197" s="22" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J197" s="23" t="n"/>
       <c r="K197" s="23" t="n"/>
       <c r="L197" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="26" t="n"/>
@@ -10168,7 +10170,7 @@
       </c>
       <c r="C198" s="22" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D198" s="22" t="n"/>
@@ -10185,14 +10187,14 @@
       <c r="G198" s="22" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="23" t="n"/>
       <c r="K198" s="23" t="n"/>
       <c r="L198" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="26" t="n"/>
@@ -10213,7 +10215,7 @@
       </c>
       <c r="C199" s="22" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D199" s="22" t="n"/>
@@ -10230,14 +10232,14 @@
       <c r="G199" s="22" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="23" t="n"/>
       <c r="K199" s="23" t="n"/>
       <c r="L199" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="26" t="n"/>
@@ -10258,7 +10260,7 @@
       </c>
       <c r="C200" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D200" s="22" t="n"/>
@@ -10275,14 +10277,14 @@
       <c r="G200" s="22" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J200" s="23" t="n"/>
       <c r="K200" s="23" t="n"/>
       <c r="L200" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M200" s="26" t="n"/>
@@ -10303,7 +10305,7 @@
       </c>
       <c r="C201" s="22" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D201" s="22" t="n"/>
@@ -10320,14 +10322,14 @@
       <c r="G201" s="22" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J201" s="23" t="n"/>
       <c r="K201" s="23" t="n"/>
       <c r="L201" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M201" s="26" t="n"/>
@@ -10336,75 +10338,225 @@
       <c r="P201" s="26" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1" s="13">
-      <c r="A202" s="22" t="n"/>
-      <c r="B202" s="22" t="n"/>
-      <c r="C202" s="22" t="n"/>
+      <c r="A202" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B202" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C202" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+        </is>
+      </c>
       <c r="D202" s="22" t="n"/>
-      <c r="E202" s="22" t="n"/>
+      <c r="E202" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G202" s="22" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J202" s="23" t="n"/>
       <c r="K202" s="23" t="n"/>
-      <c r="L202" s="26" t="n"/>
+      <c r="L202" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M202" s="26" t="n"/>
       <c r="N202" s="26" t="n"/>
       <c r="O202" s="26" t="n"/>
       <c r="P202" s="26" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1" s="13">
-      <c r="A203" s="22" t="n"/>
-      <c r="B203" s="22" t="n"/>
-      <c r="C203" s="22" t="n"/>
+      <c r="A203" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B203" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C203" s="22" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D203" s="22" t="n"/>
-      <c r="E203" s="22" t="n"/>
+      <c r="E203" s="22" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G203" s="22" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J203" s="23" t="n"/>
       <c r="K203" s="23" t="n"/>
-      <c r="L203" s="26" t="n"/>
+      <c r="L203" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M203" s="26" t="n"/>
       <c r="N203" s="26" t="n"/>
       <c r="O203" s="26" t="n"/>
       <c r="P203" s="26" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1" s="13">
-      <c r="A204" s="22" t="n"/>
-      <c r="B204" s="22" t="n"/>
-      <c r="C204" s="22" t="n"/>
+      <c r="A204" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B204" s="22" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C204" s="22" t="inlineStr">
+        <is>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+        </is>
+      </c>
       <c r="D204" s="22" t="n"/>
-      <c r="E204" s="22" t="n"/>
+      <c r="E204" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G204" s="22" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J204" s="23" t="n"/>
       <c r="K204" s="23" t="n"/>
-      <c r="L204" s="26" t="n"/>
+      <c r="L204" s="26" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M204" s="26" t="n"/>
       <c r="N204" s="26" t="n"/>
       <c r="O204" s="26" t="n"/>
       <c r="P204" s="26" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1" s="13">
-      <c r="A205" s="22" t="n"/>
-      <c r="B205" s="22" t="n"/>
-      <c r="C205" s="22" t="n"/>
+      <c r="A205" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B205" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C205" s="22" t="inlineStr">
+        <is>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+        </is>
+      </c>
       <c r="D205" s="22" t="n"/>
-      <c r="E205" s="22" t="n"/>
+      <c r="E205" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G205" s="22" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J205" s="23" t="n"/>
       <c r="K205" s="23" t="n"/>
-      <c r="L205" s="26" t="n"/>
+      <c r="L205" s="26" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M205" s="26" t="n"/>
       <c r="N205" s="26" t="n"/>
       <c r="O205" s="26" t="n"/>
       <c r="P205" s="26" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1" s="13">
-      <c r="A206" s="22" t="n"/>
-      <c r="B206" s="22" t="n"/>
-      <c r="C206" s="22" t="n"/>
+      <c r="A206" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B206" s="22" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C206" s="22" t="inlineStr">
+        <is>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
       <c r="D206" s="22" t="n"/>
-      <c r="E206" s="22" t="n"/>
+      <c r="E206" s="22" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G206" s="22" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J206" s="23" t="n"/>
       <c r="K206" s="23" t="n"/>
-      <c r="L206" s="26" t="n"/>
+      <c r="L206" s="26" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M206" s="26" t="n"/>
       <c r="N206" s="26" t="n"/>
       <c r="O206" s="26" t="n"/>
@@ -11974,7 +12126,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad y recuperación ante desastres</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
+          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,19 +1213,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1246,7 +1242,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1263,19 +1259,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1296,13 +1292,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,19 +1309,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1346,13 +1342,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1363,19 +1359,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1396,13 +1392,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1413,19 +1409,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1446,7 +1442,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1463,19 +1459,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1496,13 +1492,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1513,19 +1509,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1546,13 +1542,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1563,19 +1559,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1613,19 +1609,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1646,7 +1642,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1663,19 +1659,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1696,7 +1692,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1713,19 +1709,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1746,7 +1742,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1768,14 +1764,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1796,7 +1792,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1813,19 +1809,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1846,7 +1842,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1863,19 +1859,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1896,7 +1892,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1913,19 +1909,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1936,17 +1932,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1963,19 +1959,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1996,7 +1992,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2013,19 +2009,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2046,7 +2042,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2063,19 +2059,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2096,7 +2092,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2125,7 +2121,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2175,7 +2171,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,7 +2192,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2213,14 +2209,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2258,14 +2259,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2303,7 +2304,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2311,7 +2312,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2332,13 +2333,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2357,7 +2358,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2378,13 +2379,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2395,7 +2396,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2403,7 +2404,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2424,13 +2425,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2441,19 +2442,15 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2474,7 +2471,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2491,19 +2488,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2524,13 +2521,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2541,19 +2538,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2574,13 +2571,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2591,19 +2588,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2624,13 +2621,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2641,19 +2638,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2674,7 +2671,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2691,19 +2688,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2714,23 +2711,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2741,15 +2738,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2765,18 +2766,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2787,7 +2788,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2795,7 +2796,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2811,12 +2812,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2833,19 +2834,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2866,7 +2863,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2881,13 +2878,21 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2923,21 +2928,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2987,7 +2983,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3008,7 +3004,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3025,19 +3021,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3058,7 +3054,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3075,19 +3071,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3108,7 +3104,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3125,19 +3121,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3158,7 +3154,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3175,19 +3171,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3208,13 +3204,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3225,15 +3221,19 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,19 +3814,15 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+        </is>
+      </c>
+      <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3847,7 +3843,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Para la entrega segura de aplicaciones HTTP/S, asegúrese de que la protección y las directivas de WAF estén habilitadas en las puertas de enlace de aplicaciones</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3864,7 +3860,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
@@ -3876,7 +3872,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3947,10 +3943,14 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use un NVA asociado si no puede usar Application Gateway v2 para la seguridad de las aplicaciones HTTP/S.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
+        </is>
+      </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3964,19 +3964,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados usados para conexiones HTTP/S entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan regiones de Azure.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,19 +4314,15 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4342,18 +4338,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4360,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4372,7 +4368,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4388,18 +4384,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,19 +4406,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4438,18 +4430,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4452,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4468,7 +4460,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4484,18 +4476,18 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,7 +4498,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4514,7 +4506,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4530,18 +4522,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4552,7 +4544,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4560,7 +4552,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4576,18 +4568,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4598,7 +4590,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4606,7 +4598,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4622,18 +4614,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4644,15 +4636,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4668,18 +4664,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4690,15 +4686,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4719,13 +4719,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para los siguientes escenarios: una arquitectura de red implementada en una sola región de Azure; una arquitectura de red abarca varias regiones de Azure sin necesidad de conectividad transitiva entre redes virtuales para zonas de aterrizaje entre regiones; una arquitectura de red que abarca varias regiones de Azure con emparejamiento de red virtual global que se usa para conectar redes virtuales entre regiones de Azure; una arquitectura de red sin necesidad de conectividad transitiva entre las conexiones VPN y ExpressRoute; el principal método de conectividad híbrida implementado es ExpressRoute, y el número de conexiones VPN es inferior a 30 por puerta de enlace VPN; hay una dependencia de NVA centralizados y enrutamiento granular.</t>
+          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,19 +4736,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4769,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4786,7 +4782,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4794,7 +4790,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4811,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,7 +4828,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4840,7 +4836,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,7 +4857,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>No implemente servicios L7 entrantes, como Azure Application Gateway, como un servicio compartido en la red virtual del concentrador central. En su lugar, impleméntelos junto con la aplicación en sus respectivas zonas de aterrizaje.</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4878,15 +4874,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN, use Azure Route Server.</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4924,15 +4924,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4957,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use el emparejamiento de red virtual global para conectar redes virtuales de zona de aterrizaje cuando un pequeño número de zonas de aterrizaje necesite comunicarse entre regiones. </t>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,19 +4974,15 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +5003,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuando implemente una arquitectura de red radial en dos regiones de Azure y se requiera conectividad de tránsito entre todas las zonas de aterrizaje entre regiones, use ExpressRoute con circuitos duales para proporcionar conectividad de tránsito para redes virtuales de zona de aterrizaje en regiones de Azure. </t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,19 +5020,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5048,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5070,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5098,15 +5094,19 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5120,15 +5120,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5144,18 +5148,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5166,15 +5170,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5195,7 +5203,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5212,7 +5220,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5224,7 +5232,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5245,7 +5253,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5262,7 +5270,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5282,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,7 +5303,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5312,7 +5320,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5324,7 +5332,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,7 +5353,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5362,19 +5370,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5403,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,7 +5420,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5424,7 +5432,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5453,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5470,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5482,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5503,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5520,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,7 +5553,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use el alcance global de ExpressRoute para conectar grandes oficinas, oficinas centrales regionales o centros de datos conectados a Azure a través de ExpressRoute.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5562,7 +5570,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5582,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5603,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,7 +5620,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5624,7 +5632,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,7 +5653,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5662,19 +5670,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5699,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,19 +5716,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>No use explícitamente circuitos ExpressRoute desde una única ubicación de emparejamiento. Al hacerlo, se crea un único punto de error y se hace que la organización sea susceptible a interrupciones de ubicación de interconexión.</t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,15 +5812,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5836,18 +5840,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Considere usar Bastion para conectarse de forma segura a su red.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5862,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,13 +5895,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5912,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5937,7 +5945,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de utilizar direcciones IP de la asignación de direcciones para Internet privado (RFC 1918).</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5954,19 +5962,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5995,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6004,19 +6012,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6045,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no haya un intervalo de direcciones IP públicas (bloqueo CIDR) para las redes virtuales, especialmente si no son propiedad de su organización</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6062,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6091,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,7 +6108,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6116,7 +6120,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6132,18 +6136,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución. Cree una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6158,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6182,12 +6186,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Para entornos donde se requiere resolución de nombres en Azure y local, use la infraestructura DNS existente (por ejemplo, DNS integrado en Active Directory) implementada en al menos dos máquinas virtuales (VM). Configure las opciones de DNS en redes virtuales para usar esos servidores DNS.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6204,19 +6208,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6232,18 +6236,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6254,15 +6258,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,12 +6286,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6300,19 +6308,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6328,18 +6336,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Utilice los paquetes de Network Watcher para capturar a pesar de la ventana de captura limitada.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6350,19 +6358,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6378,18 +6386,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Inspección</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use soluciones de asociados para escenarios que requieran una inspección profunda de paquetes.</t>
+          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6400,14 +6408,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6428,13 +6441,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6445,7 +6458,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6457,7 +6470,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6478,13 +6491,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Firewall Manager con Virtual WAN para implementar y administrar Azure Firewalls en concentradores de Virtual WAN o en redes virtuales de concentradores.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6495,19 +6508,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6528,13 +6536,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6545,19 +6553,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6578,13 +6582,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6595,19 +6599,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,13 +6628,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Utilice WAF dentro de una red virtual de zona de aterrizaje para proteger el tráfico HTTP/S entrante de Internet.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6645,19 +6645,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,18 +6669,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6695,19 +6691,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,12 +6719,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6745,7 +6741,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6757,7 +6753,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6773,12 +6769,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Si se requieren NVA de socios para las conexiones HTTP/S entrantes, impleméntelas dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6795,19 +6791,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6823,12 +6819,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6845,19 +6841,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6878,7 +6874,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Si necesita comunicación privada con los servicios de PaaS, considere las diferentes opciones disponibles.</t>
+          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6895,19 +6891,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6923,12 +6919,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Los servicios PaaS de Azure que se han insertado en una red virtual siguen realizando operaciones del plano de administración mediante direcciones IP públicas. Asegúrese de que esta comunicación no se interrumpa</t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6945,19 +6941,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6973,12 +6964,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6995,19 +6986,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7023,12 +7014,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través del emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7045,19 +7036,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7073,12 +7064,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Usar extremos de servicio de red virtual cuando Private Link no está disponible</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7093,21 +7084,17 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7123,12 +7110,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7145,19 +7132,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7173,12 +7160,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>No use extremos de servicio de red virtual cuando haya problemas de exfiltración de datos, a menos que use el filtrado NVA.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7195,19 +7182,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7223,12 +7210,12 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>No implemente túneles forzados para habilitar la comunicación de Azure a los recursos de Azure.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7245,19 +7232,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7273,12 +7260,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7295,14 +7282,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7318,18 +7305,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7340,19 +7327,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7368,18 +7355,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7390,19 +7377,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7418,12 +7400,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7438,17 +7420,21 @@
         </is>
       </c>
       <c r="G138" s="21" t="n"/>
-      <c r="H138" s="15" t="n"/>
+      <c r="H138" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7464,12 +7450,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7486,19 +7472,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7514,12 +7495,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7536,19 +7517,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7564,12 +7540,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para permitir selectivamente la conectividad entre las zonas de aterrizaje.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7586,19 +7562,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7609,23 +7580,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t xml:space="preserve">Topología y conectividad de red </t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Para topologías de WAN virtual, dirija el tráfico a través de zonas de aterrizaje a través de Azure Firewall si la organización requiere funcionalidades de filtrado y registro para el tráfico que fluye a través de las zonas de aterrizaje.</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7636,19 +7607,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7659,23 +7625,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7686,19 +7652,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7709,17 +7670,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7736,14 +7697,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7754,23 +7715,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use las características de enrutamiento de concentradores virtuales para segmentar aún más el tráfico entre redes virtuales y sucursales.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7781,14 +7742,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7799,17 +7760,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7826,19 +7787,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7849,23 +7805,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Conecte sucursales y ubicaciones remotas al concentrador de Virtual WAN más cercano a través de Site-to-Site VPN, o habilite la conectividad de sucursales a Virtual WAN a través de una solución de socio SD-WAN.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7876,19 +7832,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7899,23 +7850,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Conecte a los usuarios al concentrador WAN virtual a través de una VPN de punto a sitio.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7926,19 +7877,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7949,23 +7895,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7976,14 +7922,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7994,23 +7940,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8021,19 +7967,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -8044,23 +7985,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8071,14 +8012,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8089,17 +8030,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los recursos de Azure Virtual WAN y Azure Firewall se crean en la suscripción de conectividad.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8116,14 +8057,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8134,17 +8075,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8161,14 +8102,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8179,17 +8120,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8206,14 +8147,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8224,23 +8165,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Topología y conectividad de red </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8251,14 +8192,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8269,23 +8210,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8296,14 +8237,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8314,23 +8255,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8341,14 +8282,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8359,17 +8300,17 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8386,14 +8327,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8409,18 +8350,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8431,14 +8372,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8454,12 +8395,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8476,14 +8417,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8499,18 +8440,18 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8521,14 +8462,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8544,18 +8485,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8566,14 +8507,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8589,18 +8530,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8611,14 +8552,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8634,18 +8575,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8656,14 +8597,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8679,18 +8620,18 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8701,14 +8642,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8724,12 +8665,12 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8746,14 +8687,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8769,12 +8710,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8791,14 +8732,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8814,12 +8755,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8836,14 +8777,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8859,18 +8800,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8881,14 +8822,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8904,12 +8845,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8926,14 +8867,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8949,18 +8890,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8971,14 +8912,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8994,12 +8935,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -9016,14 +8957,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -9039,12 +8980,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -9061,14 +9002,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9084,12 +9025,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9106,14 +9047,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9129,12 +9070,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9151,14 +9092,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9174,18 +9115,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9196,14 +9137,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9219,12 +9160,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9241,14 +9182,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9264,12 +9205,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9286,14 +9227,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9309,12 +9250,12 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9331,14 +9272,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9354,12 +9295,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9376,14 +9317,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9399,12 +9340,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9421,14 +9362,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9444,12 +9385,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9466,14 +9407,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9489,18 +9430,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9511,14 +9452,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9534,12 +9475,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9556,14 +9497,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9579,12 +9520,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9601,14 +9542,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9624,12 +9565,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9646,14 +9587,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9669,12 +9610,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9691,14 +9632,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9714,12 +9655,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9736,14 +9677,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9759,12 +9700,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9781,14 +9722,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9799,23 +9740,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9826,14 +9767,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9844,23 +9785,23 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9871,14 +9812,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9889,23 +9830,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9916,14 +9857,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9932,630 +9873,210 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B193" s="21" t="inlineStr">
-        <is>
-          <t>Secretos</t>
-        </is>
-      </c>
-      <c r="C193" s="21" t="inlineStr">
-        <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
-        </is>
-      </c>
+      <c r="A193" s="21" t="n"/>
+      <c r="B193" s="21" t="n"/>
+      <c r="C193" s="21" t="n"/>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E193" s="21" t="n"/>
       <c r="G193" s="21" t="n"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L193" s="25" t="n"/>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B194" s="21" t="inlineStr">
-        <is>
-          <t>Secretos</t>
-        </is>
-      </c>
-      <c r="C194" s="21" t="inlineStr">
-        <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
-        </is>
-      </c>
+      <c r="A194" s="21" t="n"/>
+      <c r="B194" s="21" t="n"/>
+      <c r="C194" s="21" t="n"/>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E194" s="21" t="n"/>
       <c r="G194" s="21" t="n"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L194" s="25" t="n"/>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B195" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C195" s="21" t="inlineStr">
-        <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
-        </is>
-      </c>
+      <c r="A195" s="21" t="n"/>
+      <c r="B195" s="21" t="n"/>
+      <c r="C195" s="21" t="n"/>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E195" s="21" t="n"/>
       <c r="G195" s="21" t="n"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L195" s="25" t="n"/>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B196" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C196" s="21" t="inlineStr">
-        <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
-        </is>
-      </c>
+      <c r="A196" s="21" t="n"/>
+      <c r="B196" s="21" t="n"/>
+      <c r="C196" s="21" t="n"/>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E196" s="21" t="n"/>
       <c r="G196" s="21" t="n"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L196" s="25" t="n"/>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B197" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C197" s="21" t="inlineStr">
-        <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
-        </is>
-      </c>
+      <c r="A197" s="21" t="n"/>
+      <c r="B197" s="21" t="n"/>
+      <c r="C197" s="21" t="n"/>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E197" s="21" t="n"/>
       <c r="G197" s="21" t="n"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L197" s="25" t="n"/>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B198" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C198" s="21" t="inlineStr">
-        <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
-        </is>
-      </c>
+      <c r="A198" s="21" t="n"/>
+      <c r="B198" s="21" t="n"/>
+      <c r="C198" s="21" t="n"/>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E198" s="21" t="n"/>
       <c r="G198" s="21" t="n"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L198" s="25" t="n"/>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B199" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C199" s="21" t="inlineStr">
-        <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
-        </is>
-      </c>
+      <c r="A199" s="21" t="n"/>
+      <c r="B199" s="21" t="n"/>
+      <c r="C199" s="21" t="n"/>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E199" s="21" t="n"/>
       <c r="G199" s="21" t="n"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L199" s="25" t="n"/>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B200" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C200" s="21" t="inlineStr">
-        <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
-        </is>
-      </c>
+      <c r="A200" s="21" t="n"/>
+      <c r="B200" s="21" t="n"/>
+      <c r="C200" s="21" t="n"/>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E200" s="21" t="n"/>
       <c r="G200" s="21" t="n"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
-        </is>
-      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="inlineStr">
-        <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
-        </is>
-      </c>
+      <c r="L200" s="25" t="n"/>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B201" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C201" s="21" t="inlineStr">
-        <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
-        </is>
-      </c>
+      <c r="A201" s="21" t="n"/>
+      <c r="B201" s="21" t="n"/>
+      <c r="C201" s="21" t="n"/>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E201" s="21" t="n"/>
       <c r="G201" s="21" t="n"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
-        </is>
-      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="inlineStr">
-        <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
-        </is>
-      </c>
+      <c r="L201" s="25" t="n"/>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B202" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C202" s="21" t="inlineStr">
-        <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
-        </is>
-      </c>
+      <c r="A202" s="21" t="n"/>
+      <c r="B202" s="21" t="n"/>
+      <c r="C202" s="21" t="n"/>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E202" s="21" t="n"/>
       <c r="G202" s="21" t="n"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L202" s="25" t="n"/>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
-        </is>
-      </c>
-      <c r="B203" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C203" s="21" t="inlineStr">
-        <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
-        </is>
-      </c>
+      <c r="A203" s="21" t="n"/>
+      <c r="B203" s="21" t="n"/>
+      <c r="C203" s="21" t="n"/>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E203" s="21" t="n"/>
       <c r="G203" s="21" t="n"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L203" s="25" t="n"/>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
-        </is>
-      </c>
-      <c r="B204" s="21" t="inlineStr">
-        <is>
-          <t>Gobernanza</t>
-        </is>
-      </c>
-      <c r="C204" s="21" t="inlineStr">
-        <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
-        </is>
-      </c>
+      <c r="A204" s="21" t="n"/>
+      <c r="B204" s="21" t="n"/>
+      <c r="C204" s="21" t="n"/>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E204" s="21" t="n"/>
       <c r="G204" s="21" t="n"/>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
-        </is>
-      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="inlineStr">
-        <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
-        </is>
-      </c>
+      <c r="L204" s="25" t="n"/>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
-        </is>
-      </c>
-      <c r="B205" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C205" s="21" t="inlineStr">
-        <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
-        </is>
-      </c>
+      <c r="A205" s="21" t="n"/>
+      <c r="B205" s="21" t="n"/>
+      <c r="C205" s="21" t="n"/>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E205" s="21" t="n"/>
       <c r="G205" s="21" t="n"/>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L205" s="25" t="n"/>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
-        </is>
-      </c>
-      <c r="B206" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C206" s="21" t="inlineStr">
-        <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
-        </is>
-      </c>
+      <c r="A206" s="21" t="n"/>
+      <c r="B206" s="21" t="n"/>
+      <c r="C206" s="21" t="n"/>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E206" s="21" t="n"/>
       <c r="G206" s="21" t="n"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L206" s="25" t="n"/>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
@@ -12089,7 +11610,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F207" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -1459,7 +1459,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
@@ -8580,10 +8580,14 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol de colaborador de directivas integrado en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="n"/>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E164" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -8597,7 +8601,7 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
@@ -8763,7 +8767,11 @@
           <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
         </is>
       </c>
-      <c r="D168" s="21" t="n"/>
+      <c r="D168" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>Medio</t>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -3943,14 +3943,10 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
-        </is>
-      </c>
+          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3964,7 +3960,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
@@ -3976,7 +3972,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3997,10 +3993,14 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para enviar conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad podría estar bien si está administrada por un solo equipo.</t>
+        </is>
+      </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4019,14 +4019,14 @@
       </c>
       <c r="I68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -4076,7 +4076,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
+          <t>Use Azure Front Door con directivas WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4114,7 +4114,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
@@ -4126,7 +4126,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,13 +4147,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Cuando use Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4164,7 +4164,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4176,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4197,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,19 +4214,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4247,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Azure AD Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4269,14 +4269,14 @@
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4297,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Azure AD para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4314,15 +4314,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4343,7 +4347,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Implemente sus perfiles WAF para Front Door en modo 'Prevención'.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4360,7 +4364,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4368,7 +4372,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4389,7 +4393,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4406,7 +4410,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4414,7 +4418,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4435,13 +4439,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4452,7 +4456,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4460,7 +4464,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4481,13 +4485,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
+          <t>Deshabilite los sondeos de mantenimiento cuando solo hay un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4498,7 +4502,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4506,7 +4510,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4527,13 +4531,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de buen estado para Azure Front Door. Considere la posibilidad de crear extremos de mantenimiento que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4544,7 +4548,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4552,7 +4556,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4568,18 +4572,18 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
+          <t>Use sondeos de estado HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4590,7 +4594,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4614,18 +4618,18 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
+          <t>Use Azure NAT Gateway en lugar de reglas de salida del equilibrador de carga para una mejor escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4636,19 +4640,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,12 +4664,12 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
+          <t>Cuando use ExpressRoute Direct, configure MACsec para cifrar el tráfico en el nivel de capa dos entre los enrutadores de la organización y MSEE. El diagrama muestra este cifrado en flujo.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4686,19 +4686,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4714,18 +4710,18 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encriptación</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
+          <t xml:space="preserve">Para escenarios en los que MACsec no es una opción (por ejemplo, no usar ExpressRoute Direct), use una puerta de enlace VPN para establecer túneles IPsec sobre el emparejamiento privado de ExpressRoute. </t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4736,15 +4732,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
+          <t>Considere un diseño de red basado en la topología de red radial tradicional para escenarios de red que requieren la máxima flexibilidad.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4782,15 +4782,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4811,13 +4815,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
+          <t>Asegúrese de que los servicios de red compartidos, incluidas las puertas de enlace de ExpressRoute, las puertas de enlace VPN y Azure Firewall o NVA asociados en la red virtual del concentrador central. Si es necesario, implemente también controladores de dominio de Active Directory y servidores DNS.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4828,7 +4832,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4836,7 +4840,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4857,7 +4861,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
+          <t>Al implementar tecnologías de red de socios o NVA, siga las instrucciones del proveedor del socio</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4874,19 +4878,15 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4907,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
+          <t>Si necesita tránsito entre ExpressRoute y puertas de enlace VPN en escenarios radiales, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,19 +4924,15 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4957,13 +4953,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+          <t>Si utiliza Route Server, utilice un prefijo /27 para la subred de Route Server.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4974,7 +4970,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4982,7 +4978,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5003,13 +4999,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
+          <t xml:space="preserve">Para arquitecturas de red con varias topologías radiales en regiones de Azure, use emparejamientos de redes virtuales globales entre las redes virtuales de concentradores para conectar las regiones entre sí. </t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5020,15 +5016,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
+          <t>Use Azure Monitor for Networks para supervisar el estado completo de las redes en Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5066,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5094,19 +5094,15 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
-        </is>
-      </c>
+          <t>Al conectar redes virtuales radiales a la red virtual del concentrador central, tenga en cuenta los límites de emparejamiento de red virtual y el número máximo de prefijos que se pueden anunciar a través de ExpressRoute</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5120,19 +5116,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5148,18 +5140,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
+          <t>Use la configuración "Permitir tráfico a la red virtual remota" al configurar emparejamientos de red virtual de red virtual</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5170,19 +5162,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5203,7 +5191,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Asegúrese de que ha investigado la posibilidad de usar ExpressRoute como conexión principal a Azure.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5220,7 +5208,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
@@ -5232,7 +5220,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5253,10 +5241,14 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>Cuando use varios circuitos ExpressRoute o varias ubicaciones locales, asegúrese de optimizar el enrutamiento con atributos BGP, si se prefieren determinadas rutas de acceso.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>Puede usar los pesos de conexión y pendientes de ruta para influir en el tráfico de Azure al local, y toda la gama de atributos BGP en sus propios enrutadores para influir en el tráfico del entorno local a Azure.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5270,7 +5262,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5282,7 +5274,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5303,7 +5295,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Asegúrese de usar la SKU correcta para las puertas de enlace ExpressRoute/VPN en función de los requisitos de ancho de banda y rendimiento.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5320,7 +5312,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5332,7 +5324,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5353,7 +5345,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5370,19 +5362,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5403,13 +5395,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5420,7 +5412,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
@@ -5432,7 +5424,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5453,7 +5445,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5470,7 +5462,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5482,7 +5474,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5503,7 +5495,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5520,19 +5512,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5553,13 +5545,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5570,7 +5562,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5582,7 +5574,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5603,7 +5595,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5620,7 +5612,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5632,7 +5624,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5653,7 +5645,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5670,15 +5662,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5699,7 +5695,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5716,15 +5712,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5740,18 +5740,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5762,19 +5762,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5790,18 +5790,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5812,19 +5812,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5840,12 +5836,12 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5862,19 +5858,15 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5895,7 +5887,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5912,19 +5904,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5945,13 +5937,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5962,19 +5954,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5995,13 +5987,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6012,19 +6004,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6045,13 +6037,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6062,15 +6054,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6091,13 +6087,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6104,7 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6120,7 +6116,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6136,18 +6132,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6158,19 +6154,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6186,18 +6182,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6208,19 +6204,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6236,18 +6228,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6258,19 +6250,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6291,7 +6283,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6308,19 +6300,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6341,13 +6328,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6358,19 +6345,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6391,7 +6373,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6408,19 +6390,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6441,13 +6423,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6458,7 +6440,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6470,7 +6452,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6491,13 +6473,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6508,14 +6490,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6536,13 +6523,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6553,15 +6540,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6582,13 +6573,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6599,15 +6590,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6628,7 +6623,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6645,15 +6640,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6669,12 +6668,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6691,19 +6690,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6719,18 +6718,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6741,19 +6740,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,18 +6764,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6791,19 +6786,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6819,18 +6810,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6841,19 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6869,18 +6855,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6891,19 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6919,18 +6900,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6941,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6964,18 +6945,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6986,19 +6967,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -7014,12 +6995,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7036,19 +7017,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7064,12 +7045,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7084,17 +7065,21 @@
         </is>
       </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7110,12 +7095,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7132,19 +7117,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7160,12 +7145,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7182,19 +7167,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7210,18 +7195,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7232,19 +7217,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7260,18 +7240,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7282,14 +7262,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7305,18 +7285,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Conexión de concentradores de Virtual WAN a centros de datos locales mediante ExpressRoute</t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7327,19 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7355,18 +7330,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7377,14 +7352,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7400,12 +7380,12 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7422,19 +7402,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7450,12 +7430,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Al implementar tecnologías de red de socios y NVA en VWAN, verifique la configuración con la guía del proveedor del socio para asegurarse de que no haya configuraciones conflictivas</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7470,16 +7450,17 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+      <c r="H139" s="15" t="n"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7495,12 +7476,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7517,14 +7498,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7540,12 +7526,12 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7562,14 +7548,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7580,23 +7571,23 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Topología y conectividad de red </t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7607,14 +7598,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7625,23 +7621,23 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7652,14 +7648,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7670,23 +7666,23 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7697,14 +7693,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7715,23 +7711,23 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7742,14 +7738,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7760,17 +7761,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7787,14 +7788,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7805,23 +7806,23 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7832,14 +7833,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7850,23 +7851,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7877,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7895,23 +7896,23 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7922,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7940,23 +7941,23 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7967,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7985,17 +7986,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8012,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8030,7 +8031,7 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
@@ -8040,13 +8041,13 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8057,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8075,7 +8076,7 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
@@ -8085,7 +8086,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8102,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8130,13 +8131,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8147,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8175,13 +8176,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8192,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8220,13 +8221,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8237,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8260,12 +8261,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8282,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8305,18 +8306,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8327,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8350,18 +8351,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8372,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8395,18 +8396,18 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8417,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8440,12 +8441,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8462,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8485,18 +8486,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8507,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8530,12 +8531,12 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8552,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8575,22 +8576,18 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D164" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+        </is>
+      </c>
+      <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8601,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8624,12 +8621,12 @@
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8646,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8674,13 +8671,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8691,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8719,7 +8716,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8736,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8764,14 +8761,10 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D168" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+        </is>
+      </c>
+      <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -8785,14 +8778,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8808,18 +8801,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8830,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8853,12 +8846,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,14 +8868,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8898,18 +8891,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8920,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8943,12 +8936,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,14 +8958,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8988,15 +8981,19 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="n"/>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E173" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9010,14 +9007,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9033,12 +9030,12 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9055,14 +9052,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9078,12 +9075,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9100,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9123,12 +9120,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9145,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9168,15 +9165,19 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="n"/>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9190,14 +9191,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9218,13 +9219,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9235,14 +9236,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9263,7 +9264,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9280,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9308,7 +9309,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9332,7 +9333,7 @@
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9348,12 +9349,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9370,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9393,12 +9394,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9415,14 +9416,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9438,12 +9439,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9460,14 +9461,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9483,12 +9484,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9505,14 +9506,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9528,12 +9529,12 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9550,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9573,12 +9574,12 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9595,14 +9596,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9618,12 +9619,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9640,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9663,12 +9664,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9685,14 +9686,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9708,12 +9709,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9730,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9748,23 +9749,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9775,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9793,7 +9794,7 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
@@ -9803,13 +9804,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9820,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9838,7 +9839,7 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
@@ -9848,13 +9849,13 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9865,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9881,135 +9882,405 @@
       <c r="P192" s="25" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1">
-      <c r="A193" s="21" t="n"/>
-      <c r="B193" s="21" t="n"/>
-      <c r="C193" s="21" t="n"/>
+      <c r="A193" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B193" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C193" s="21" t="inlineStr">
+        <is>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D193" s="21" t="n"/>
-      <c r="E193" s="21" t="n"/>
+      <c r="E193" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G193" s="21" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="25" t="n"/>
+      <c r="L193" s="25" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M193" s="25" t="n"/>
       <c r="N193" s="25" t="n"/>
       <c r="O193" s="25" t="n"/>
       <c r="P193" s="25" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1">
-      <c r="A194" s="21" t="n"/>
-      <c r="B194" s="21" t="n"/>
-      <c r="C194" s="21" t="n"/>
+      <c r="A194" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B194" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C194" s="21" t="inlineStr">
+        <is>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+        </is>
+      </c>
       <c r="D194" s="21" t="n"/>
-      <c r="E194" s="21" t="n"/>
+      <c r="E194" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G194" s="21" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="25" t="n"/>
+      <c r="L194" s="25" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M194" s="25" t="n"/>
       <c r="N194" s="25" t="n"/>
       <c r="O194" s="25" t="n"/>
       <c r="P194" s="25" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1">
-      <c r="A195" s="21" t="n"/>
-      <c r="B195" s="21" t="n"/>
-      <c r="C195" s="21" t="n"/>
+      <c r="A195" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B195" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C195" s="21" t="inlineStr">
+        <is>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+        </is>
+      </c>
       <c r="D195" s="21" t="n"/>
-      <c r="E195" s="21" t="n"/>
+      <c r="E195" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G195" s="21" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="25" t="n"/>
+      <c r="L195" s="25" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M195" s="25" t="n"/>
       <c r="N195" s="25" t="n"/>
       <c r="O195" s="25" t="n"/>
       <c r="P195" s="25" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1">
-      <c r="A196" s="21" t="n"/>
-      <c r="B196" s="21" t="n"/>
-      <c r="C196" s="21" t="n"/>
+      <c r="A196" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B196" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C196" s="21" t="inlineStr">
+        <is>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+        </is>
+      </c>
       <c r="D196" s="21" t="n"/>
-      <c r="E196" s="21" t="n"/>
+      <c r="E196" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G196" s="21" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="25" t="n"/>
+      <c r="L196" s="25" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M196" s="25" t="n"/>
       <c r="N196" s="25" t="n"/>
       <c r="O196" s="25" t="n"/>
       <c r="P196" s="25" t="n"/>
     </row>
     <row r="197" ht="16.5" customHeight="1">
-      <c r="A197" s="21" t="n"/>
-      <c r="B197" s="21" t="n"/>
-      <c r="C197" s="21" t="n"/>
+      <c r="A197" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B197" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C197" s="21" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+        </is>
+      </c>
       <c r="D197" s="21" t="n"/>
-      <c r="E197" s="21" t="n"/>
+      <c r="E197" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G197" s="21" t="n"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="25" t="n"/>
+      <c r="L197" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M197" s="25" t="n"/>
       <c r="N197" s="25" t="n"/>
       <c r="O197" s="25" t="n"/>
       <c r="P197" s="25" t="n"/>
     </row>
     <row r="198" ht="16.5" customHeight="1">
-      <c r="A198" s="21" t="n"/>
-      <c r="B198" s="21" t="n"/>
-      <c r="C198" s="21" t="n"/>
+      <c r="A198" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad, gobernanza y cumplimiento</t>
+        </is>
+      </c>
+      <c r="B198" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C198" s="21" t="inlineStr">
+        <is>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+        </is>
+      </c>
       <c r="D198" s="21" t="n"/>
-      <c r="E198" s="21" t="n"/>
+      <c r="E198" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G198" s="21" t="n"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="25" t="n"/>
+      <c r="L198" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M198" s="25" t="n"/>
       <c r="N198" s="25" t="n"/>
       <c r="O198" s="25" t="n"/>
       <c r="P198" s="25" t="n"/>
     </row>
     <row r="199" ht="16.5" customHeight="1">
-      <c r="A199" s="21" t="n"/>
-      <c r="B199" s="21" t="n"/>
-      <c r="C199" s="21" t="n"/>
+      <c r="A199" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B199" s="21" t="inlineStr">
+        <is>
+          <t>Gobernanza</t>
+        </is>
+      </c>
+      <c r="C199" s="21" t="inlineStr">
+        <is>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+        </is>
+      </c>
       <c r="D199" s="21" t="n"/>
-      <c r="E199" s="21" t="n"/>
+      <c r="E199" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G199" s="21" t="n"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="25" t="n"/>
+      <c r="L199" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M199" s="25" t="n"/>
       <c r="N199" s="25" t="n"/>
       <c r="O199" s="25" t="n"/>
       <c r="P199" s="25" t="n"/>
     </row>
     <row r="200" ht="16.5" customHeight="1">
-      <c r="A200" s="21" t="n"/>
-      <c r="B200" s="21" t="n"/>
-      <c r="C200" s="21" t="n"/>
+      <c r="A200" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B200" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C200" s="21" t="inlineStr">
+        <is>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+        </is>
+      </c>
       <c r="D200" s="21" t="n"/>
-      <c r="E200" s="21" t="n"/>
+      <c r="E200" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G200" s="21" t="n"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="25" t="n"/>
+      <c r="L200" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M200" s="25" t="n"/>
       <c r="N200" s="25" t="n"/>
       <c r="O200" s="25" t="n"/>
       <c r="P200" s="25" t="n"/>
     </row>
     <row r="201" ht="16.5" customHeight="1">
-      <c r="A201" s="21" t="n"/>
-      <c r="B201" s="21" t="n"/>
-      <c r="C201" s="21" t="n"/>
+      <c r="A201" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B201" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C201" s="21" t="inlineStr">
+        <is>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
       <c r="D201" s="21" t="n"/>
-      <c r="E201" s="21" t="n"/>
+      <c r="E201" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G201" s="21" t="n"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
-      <c r="L201" s="25" t="n"/>
+      <c r="L201" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M201" s="25" t="n"/>
       <c r="N201" s="25" t="n"/>
       <c r="O201" s="25" t="n"/>
@@ -11618,7 +11889,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -5345,13 +5345,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
+          <t>Asegúrese de usar circuitos ExpressRoute de datos ilimitados solo si alcanza el ancho de banda que justifica su costo.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,19 +5362,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5395,13 +5391,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
+          <t>Aproveche la SKU local de ExpressRoute para reducir el costo de los circuitos, si la ubicación de emparejamiento de los circuitos admite las regiones de Azure para la SKU local.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5412,19 +5408,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5445,7 +5437,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
+          <t>Implemente una puerta de enlace de ExpressRoute con redundancia de zona en las regiones de Azure admitidas.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5462,7 +5454,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5474,7 +5466,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5495,7 +5487,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
+          <t>Para escenarios que requieren un ancho de banda superior a 10 Gbps o puertos dedicados de 10/100 Gbps, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5512,19 +5504,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5545,13 +5537,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
+          <t>Cuando se requiera una latencia baja o el rendimiento del entorno local a Azure deba ser superior a 10 Gbps, habilite FastPath para omitir la puerta de enlace de ExpressRoute de la ruta de datos.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5562,7 +5554,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5574,7 +5566,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
+          <t>Use puertas de enlace VPN para conectar sucursales o ubicaciones remotas a Azure. Para una mayor resiliencia, implemente puertas de enlace con redundancia de zona (donde estén disponibles).</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5612,19 +5604,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5645,13 +5637,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
+          <t>Si usa ExpressRoute Direct, considere la posibilidad de usar circuitos locales de ExpressRoute en las regiones locales de Azure para ahorrar costos</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5662,7 +5654,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5674,7 +5666,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5695,7 +5687,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
+          <t>Cuando se requiere aislamiento de tráfico o ancho de banda dedicado, como para separar entornos de producción y no producción, use circuitos ExpressRoute diferentes. Le ayudará a garantizar dominios de enrutamiento aislados y aliviar los riesgos de vecinos ruidosos.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5712,7 +5704,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5724,7 +5716,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5745,7 +5737,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
+          <t>Supervise la disponibilidad y el uso de ExpressRoute mediante métricas integradas de Azure Monitor.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5762,7 +5754,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5774,7 +5766,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5795,7 +5787,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
+          <t>Utilice el Monitor de conexión para la supervisión de la conectividad en todo el entorno.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5812,15 +5804,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5841,13 +5837,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
+          <t>Use circuitos ExpressRoute de diferentes ubicaciones de emparejamiento para la redundancia.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5858,15 +5854,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5882,18 +5882,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
+          <t>Al implementar una máquina virtual de AD Connect, considere la posibilidad de tener un servidor de ensayo para alta disponibilidad / recuperación ante desastres</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5904,19 +5904,15 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5932,18 +5928,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Plan IP</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
+          <t>Si va a implementar al menos dos máquinas virtuales que ejecutan AD DS como controladores de dominio, agréguelas a diferentes zonas de disponibilidad. Si no está disponible en la región, implemente en un conjunto de disponibilidad.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5954,19 +5950,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5987,7 +5979,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
+          <t>Asegúrese de que no se usen espacios de direcciones IP superpuestos entre regiones de Azure y ubicaciones locales</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -6016,7 +6008,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6037,13 +6029,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
+          <t>Utilice direcciones IP de los intervalos de asignación de direcciones para Internets privadas (RFC 1918).</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6054,19 +6046,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6087,13 +6079,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
+          <t xml:space="preserve">Asegúrese de que no se desperdicie espacio de direcciones IP, no cree redes virtuales innecesariamente grandes (por ejemplo, /16) </t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6104,19 +6096,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6137,13 +6129,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
+          <t>Evite usar rangos de direcciones IP superpuestos para los sitios de producción y DR.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6154,19 +6146,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6187,13 +6179,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
+          <t>Para entornos en los que la resolución de nombres en Azure es todo lo que se requiere, use Azure Private DNS para la resolución con una zona delegada para la resolución de nombres (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6207,12 +6199,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I113" s="15" t="n"/>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6233,13 +6229,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
+          <t>Para entornos en los que se requiere la resolución de nombres en Azure y en el entorno local, considere la posibilidad de usar Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6250,19 +6246,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6278,18 +6274,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
+          <t>Las cargas de trabajo especiales que requieren e implementan su propio DNS (como Red Hat OpenShift) deben usar su solución DNS preferida.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6300,14 +6296,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6323,18 +6319,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Plan IP</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion en una subred /26 o superior.</t>
+          <t>Habilite el registro automático de DNS de Azure para administrar automáticamente el ciclo de vida de los registros DNS de las máquinas virtuales implementadas en una red virtual.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6345,14 +6341,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6373,13 +6374,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
+          <t>Considere la posibilidad de usar Azure Bastion para conectarse de forma segura a la red.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6390,19 +6391,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6423,7 +6419,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
+          <t>Use Azure Bastion en una subred /26 o superior.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6440,19 +6436,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6473,13 +6465,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
+          <t>Use Azure Firewall para controlar el tráfico saliente de Azure a Internet, las conexiones entrantes que no son HTTP/S y el filtrado de tráfico Este/Oeste (si la organización lo requiere)</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6490,7 +6482,7 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6502,7 +6494,7 @@
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6523,7 +6515,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
+          <t>Cree una directiva global de Azure Firewall para controlar la postura de seguridad en todo el entorno de red global y asígnela a todas las instancias de Azure Firewall. Permita que las directivas granulares cumplan los requisitos de regiones específicas delegando directivas de firewall incrementales a equipos de seguridad locales a través del control de acceso basado en roles de Azure.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6540,19 +6532,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6573,7 +6565,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
+          <t>Configure los proveedores de seguridad SaaS de socios compatibles en Firewall Manager si la organización desea usar dichas soluciones para ayudar a proteger las conexiones salientes.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6590,19 +6582,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6623,13 +6615,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
+          <t>Use Azure Front Door y las directivas WAF para proporcionar protección global en todas las regiones de Azure para las conexiones HTTP/S entrantes a una zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6640,19 +6632,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6673,13 +6665,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
+          <t>Cuando use Azure Front Door y Azure Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas WAF en Azure Front Door. Bloquee Azure Application Gateway para recibir tráfico solo de Azure Front Door.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6690,19 +6682,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6723,7 +6715,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
+          <t>Se requieren implementar WAF y otros proxies inversos para las conexiones HTTP / S entrantes, implementarlos dentro de una red virtual de zona de aterrizaje y junto con las aplicaciones que están protegiendo y exponiendo a Internet.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6740,15 +6732,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6769,7 +6765,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
+          <t>Use planes de protección IP o de red DDoS de Azure para ayudar a proteger los puntos de conexión de direcciones IP públicas dentro de las redes virtuales.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6786,15 +6782,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
+          <t>Use reglas de red basadas en FQDN y Azure Firewall con proxy DNS para filtrar el tráfico de salida a Internet no admitido por las reglas de aplicación.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6832,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
+          <t>Use Azure Firewall Premium para obtener seguridad y protección adicionales.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6877,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
+          <t>Configure el modo Inteligencia de amenazas de Azure Firewall en Alerta y Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6922,14 +6922,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6945,12 +6945,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
+          <t>Configure el modo IDPS de Azure Firewall en Denegar para obtener protección adicional.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,19 +6967,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,18 +6990,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Paas</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
+          <t>Para las subredes de redes virtuales no conectadas a Virtual WAN, adjunte una tabla de ruteo para que el tráfico de Internet se redirija a Azure Firewall o a un dispositivo virtual de red</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7017,19 +7012,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7050,13 +7040,13 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
+          <t>Asegúrese de que la comunicación del plano de control para los servicios PaaS de Azure insertados en una red virtual no se interrumpe, por ejemplo, con una ruta 0.0.0.0/0 o una regla de NSG que bloquee el tráfico del plano de control.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
       <c r="E131" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7067,19 +7057,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7100,7 +7090,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
+          <t>Use Private Link, donde esté disponible, para los servicios PaaS de Azure compartidos.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7122,14 +7112,14 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7150,7 +7140,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
+          <t>Acceda a los servicios PaaS de Azure desde el entorno local a través de puntos de conexión privados y emparejamiento privado de ExpressRoute. Este método evita el tránsito a través de la Internet pública.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7172,14 +7162,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7195,18 +7185,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
+          <t>No habilite los extremos del servicio de red virtual de forma predeterminada en todas las subredes.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7217,14 +7207,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,18 +7235,18 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentación</t>
+          <t>Paas</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
+          <t>Si usa extremos de servicio de red virtual, filtre los FQDN de salida en un NVA para evitar la exfiltración de datos.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7262,14 +7257,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7290,13 +7290,13 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
+          <t>Use un prefijo /26 para las subredes de Azure Firewall.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7307,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,13 +7335,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
+          <t>Usar al menos un prefijo /27 para las subredes de puerta de enlace</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7352,19 +7352,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7385,7 +7380,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
+          <t>No confíe en las reglas predeterminadas de entrada de NSG mediante la etiqueta de servicio VirtualNetwork para limitar la conectividad.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7402,19 +7397,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7435,7 +7425,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
+          <t xml:space="preserve">Delegue la creación de subredes al propietario de la zona de aterrizaje. </t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7450,17 +7440,21 @@
         </is>
       </c>
       <c r="G139" s="21" t="n"/>
-      <c r="H139" s="15" t="n"/>
+      <c r="H139" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7481,7 +7475,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
+          <t>Utilice NSG para ayudar a proteger el tráfico a través de subredes, así como el tráfico este/oeste a través de la plataforma (tráfico entre zonas de aterrizaje).</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7498,7 +7492,7 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7510,7 +7504,7 @@
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7531,7 +7525,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
+          <t>El equipo de aplicaciones debe usar grupos de seguridad de aplicaciones en los grupos de seguridad de red de nivel de subred para ayudar a proteger las máquinas virtuales de varios niveles dentro de la zona de aterrizaje.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7546,21 +7540,17 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H141" s="15" t="n"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7576,12 +7566,12 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
+          <t>Utilice grupos de seguridad de aplicaciones y NSG para microsegmentar el tráfico dentro de la zona de aterrizaje y evite usar un NVA central para filtrar los flujos de tráfico.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7598,19 +7588,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7626,12 +7616,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentación</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
+          <t>Habilite los registros de flujo de NSG y introdúzcalos en Traffic Analytics para obtener información sobre los flujos de tráfico internos y externos.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7648,14 +7638,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7676,13 +7671,13 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
+          <t>Considere Virtual WAN para simplificar la administración de redes de Azure y asegúrese de que su escenario se describe explícitamente en la lista de diseños de enrutamiento de Virtual WAN</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
       <c r="E144" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7693,14 +7688,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
+          <t>Use un centro de WAN virtual por región de Azure para conectar varias zonas de aterrizaje entre regiones de Azure a través de una WAN virtual de Azure global común.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7739,18 +7739,13 @@
       <c r="H145" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7771,13 +7766,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
+          <t>Siga el principio "el tráfico en Azure permanece en Azure" para que la comunicación entre los recursos de Azure se produzca a través de la red troncal de Microsoft</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7788,14 +7783,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7816,7 +7811,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
+          <t>Para la protección y el filtrado del tráfico saliente de Internet, implemente Azure Firewall en centros seguros</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7833,14 +7828,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
+          <t>Asegúrese de que la arquitectura de red está dentro de los límites de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7878,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN para supervisar la topología de un extremo a otro de la WAN virtual, el estado y las métricas clave.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7923,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
+          <t>Asegúrese de que las implementaciones de IaC no deshabilitan el tráfico de rama a rama en Virtual WAN, a menos que estos flujos se bloqueen explícitamente.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7968,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,13 +7996,13 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
+          <t>Utilice AS-Path como preferencia de enrutamiento de concentradores, ya que es más flexible que ExpressRoute o VPN.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8013,14 +8013,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8031,23 +8031,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
+          <t>Asegúrese de que las implementaciones de IaC configuran la propagación basada en etiquetas en Virtual WAN; de lo contrario, la conectividad entre los concentradores virtuales se verá afectada.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8058,14 +8058,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8076,23 +8076,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Asigne suficiente espacio IP a los concentradores virtuales, idealmente un prefijo /23.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8103,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,7 +8121,7 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca el costo operativo y el riesgo de interrupciones debido a la renovación de certificados.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8148,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8166,7 +8166,7 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Seguridad, gobernanza y cumplimiento</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Defina la configuración de Azure Front Door WAF como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8193,14 +8193,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Utilice TLS para las conexiones de sus clientes a la puerta principal, y de la puerta principal a su origen.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8238,14 +8238,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8266,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use la redirección de HTTP a HTTPS con Azure Front Door. Admite clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8283,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
+          <t>Habilite Azure Front Door WAF. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8328,14 +8328,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Ajuste el WAF de puerta delantera de Azure para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8373,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
+          <t>Use el modo de prevención con Azure Front Door WAF. El modo de prevención garantiza que el WAF bloquee las solicitudes maliciosas.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8418,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,13 +8446,13 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de Azure Front Door WAF. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8463,14 +8463,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,13 +8491,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Habilite las reglas de administración de bots de Azure Front Door WAF. Las reglas del bot detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8508,14 +8508,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8553,14 +8553,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,13 +8581,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes accidental o intencionalmente enviando grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8598,14 +8598,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad WAF de Azure Front Door. Los umbrales de límite de alta velocidad evitan bloquear el tráfico legítimo, al tiempo que proporcionan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8643,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8666,18 +8666,18 @@
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Aproveche la directiva de Azure</t>
+          <t>Filtre geográficamente el tráfico mediante Azure Front Door WAF. Permitir el tráfico solo de las regiones esperadas y bloquear el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8688,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con Azure Front Door WAF. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se pueden igualar geográficamente.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8733,14 +8733,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8761,13 +8761,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
+          <t>Aproveche la directiva de Azure</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8785,7 +8785,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
+          <t>Identifique las etiquetas de Azure necesarias y use el modo de directiva anexar para aplicar el uso.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8823,14 +8823,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
+          <t>Asigne los requisitos normativos y de cumplimiento a las definiciones de directivas de Azure y las asignaciones de roles de Azure.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,13 +8896,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+          <t>Establecer definiciones de directivas de Azure en el grupo de administración raíz de nivel superior para que se puedan asignar en ámbitos heredados</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8913,14 +8913,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
+          <t>Administre las asignaciones de directivas en el nivel más alto apropiado con exclusiones en los niveles inferiores, si es necesario</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,17 +8986,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
-        </is>
-      </c>
-      <c r="D173" s="21" t="inlineStr">
-        <is>
-          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
-        </is>
-      </c>
+          <t>Use Azure Policy para controlar qué servicios pueden aprovisionar los usuarios en el nivel de grupo de suscripción/administración</t>
+        </is>
+      </c>
+      <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9007,14 +9003,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9035,7 +9031,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
+          <t>Utilice políticas integradas siempre que sea posible para minimizar la sobrecarga operativa.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9059,7 +9055,7 @@
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9080,10 +9076,14 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="n"/>
+          <t>Asigne el rol integrado de colaborador de directivas de recursos en un ámbito determinado para habilitar el gobierno de nivel de aplicación.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="inlineStr">
+        <is>
+          <t>La asignación del rol Colaborador de directivas de recursos a ámbitos específicos permite delegar la administración de directivas a los equipos pertinentes. Por ejemplo, un equipo central de TI puede supervisar las políticas de nivel de grupo de administración, mientras que los equipos de aplicaciones manejan las políticas para sus suscripciones, lo que permite un gobierno distribuido con el cumplimiento de los estándares de la organización.</t>
+        </is>
+      </c>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9097,14 +9097,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
+          <t>Limite el número de asignaciones de directivas de Azure realizadas en el ámbito del grupo de administración raíz para evitar la administración mediante exclusiones en ámbitos heredados.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9142,14 +9142,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,14 +9170,10 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D177" s="21" t="inlineStr">
-        <is>
-          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Use directivas de Azure para implementar automáticamente configuraciones de software a través de extensiones de máquina virtual y aplicar una configuración de máquina virtual de línea base compatible.</t>
+        </is>
+      </c>
+      <c r="D177" s="21" t="n"/>
       <c r="E177" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9191,14 +9187,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9214,18 +9210,18 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
+          <t>Considere el uso de etiquetas de automatización para iniciar/detener máquinas virtuales en su entorno para ahorrar costos.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9236,14 +9232,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9259,15 +9255,19 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Secretos</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Supervise la desviación de la configuración de seguridad de VM a través de Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Las características de configuración de invitado de Azure Policy pueden auditar y corregir la configuración del equipo (por ejemplo, SO, aplicación, entorno) para garantizar que los recursos se alineen con las configuraciones esperadas, y Update Management puede aplicar la administración de revisiones para máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -9281,14 +9281,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9309,13 +9309,13 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
+          <t>Uso del Almacén de claves de Azure para almacenar sus secretos y credenciales</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9326,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
+          <t>Use diferentes almacenes de claves de Azure para diferentes aplicaciones y regiones para evitar los límites de escala de transacciones y restringir el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9371,14 +9371,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
+          <t>Aprovisione Azure Key Vault con las directivas de eliminación y purga temporal habilitadas para permitir la protección de retención de objetos eliminados.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9423,7 +9423,7 @@
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
+          <t>Siga un modelo de privilegios mínimos limitando la autorización para eliminar permanentemente claves, secretos y certificados a roles personalizados especializados de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9468,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
+          <t>Automatice el proceso de gestión y renovación de certificados con las autoridades de certificación públicas para facilitar la administración.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9513,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
+          <t>Establezca un proceso automatizado para la rotación de claves y certificados.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9551,14 +9551,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
+          <t>Habilite el firewall y el punto de conexión del servicio de red virtual o el punto de conexión privado en el almacén para controlar el acceso al almacén de claves.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9603,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
+          <t>Use el área de trabajo de Azure Monitor Log Analytics central para auditar el uso de claves, certificados y secretos dentro de cada instancia de Key Vault.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9641,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
+          <t>Delegue la creación de instancias del Almacén de claves y el acceso con privilegios, y use Azure Policy para aplicar una configuración compatible coherente.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9693,7 +9693,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9714,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
+          <t>De forma predeterminada, utilice las claves administradas por Microsoft para la funcionalidad de cifrado principal y use claves administradas por el cliente cuando sea necesario.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9731,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9754,12 +9754,12 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
+          <t>Use un Almacén de claves de Azure por aplicación por entorno y región.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9776,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9799,12 +9799,12 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Secretos</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
+          <t>Si desea traer sus propias claves, es posible que no se admitan en todos los servicios considerados. Implemente una mitigación relevante para que las inconsistencias no obstaculicen los resultados deseados. Elija pares de regiones y regiones de recuperación ante desastres adecuadas que minimicen la latencia.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9821,14 +9821,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
+          <t>Use las funcionalidades de informes de Azure AD para generar informes de auditoría de control de acceso.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9866,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
+          <t>Exporte los registros de actividad de Azure a los registros de Azure Monitor para la retención de datos a largo plazo. Exporte a Azure Storage para almacenamiento a largo plazo más allá de dos años, si es necesario.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9911,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
+          <t>Habilite Defender for Cloud Standard para todas las suscripciones.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9956,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
+          <t>Supervise la desviación de la revisión del sistema operativo base a través de Azure Monitor Logs y Defender for Cloud.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10001,14 +10001,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
+          <t>Conecte las configuraciones de recursos predeterminadas a un área de trabajo centralizada de Azure Monitor Log Analytics.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10046,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
+          <t>Determine el plan de respuesta a incidentes para los servicios de Azure antes de permitirlo en producción.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10091,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
+          <t>Implemente un enfoque de confianza cero para el acceso a la plataforma Azure, cuando corresponda.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10136,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10154,23 +10154,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
+          <t>Planeación de cómo se implementarán los nuevos servicios de Azure</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10181,14 +10181,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10199,7 +10199,7 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+          <t>Seguridad, gobernanza y cumplimiento</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
@@ -10209,13 +10209,13 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+          <t>Planeación de cómo se cumplirá la solicitud de servicio para los servicios de Azure</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10226,14 +10226,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+          <t>Se recomienda seguir los estándares de nomenclatura de procedimientos recomendados de Microsoft</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10271,14 +10271,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10287,30 +10287,90 @@
       <c r="P201" s="25" t="n"/>
     </row>
     <row r="202" ht="16.5" customHeight="1">
-      <c r="A202" s="21" t="n"/>
-      <c r="B202" s="21" t="n"/>
-      <c r="C202" s="21" t="n"/>
+      <c r="A202" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B202" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C202" s="21" t="inlineStr">
+        <is>
+          <t>La transferencia segura a cuentas de almacenamiento debe estar habilitada</t>
+        </is>
+      </c>
       <c r="D202" s="21" t="n"/>
-      <c r="E202" s="21" t="n"/>
+      <c r="E202" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G202" s="21" t="n"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
-      <c r="L202" s="25" t="n"/>
+      <c r="L202" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M202" s="25" t="n"/>
       <c r="N202" s="25" t="n"/>
       <c r="O202" s="25" t="n"/>
       <c r="P202" s="25" t="n"/>
     </row>
     <row r="203" ht="16.5" customHeight="1">
-      <c r="A203" s="21" t="n"/>
-      <c r="B203" s="21" t="n"/>
-      <c r="C203" s="21" t="n"/>
+      <c r="A203" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seguridad, gobernanza y cumplimiento </t>
+        </is>
+      </c>
+      <c r="B203" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="C203" s="21" t="inlineStr">
+        <is>
+          <t>Habilite la eliminación temporal del contenedor para que la cuenta de almacenamiento recupere un contenedor eliminado y su contenido.</t>
+        </is>
+      </c>
       <c r="D203" s="21" t="n"/>
-      <c r="E203" s="21" t="n"/>
+      <c r="E203" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G203" s="21" t="n"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
-      <c r="L203" s="25" t="n"/>
+      <c r="L203" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M203" s="25" t="n"/>
       <c r="N203" s="25" t="n"/>
       <c r="O203" s="25" t="n"/>
@@ -11889,7 +11949,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F202" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/lz_checklist.es.xlsx
+++ b/spreadsheet/macrofree/lz_checklist.es.xlsx
@@ -1094,17 +1094,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Copia de seguridad y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Protección de datos</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1129,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Considere la replicación entre regiones en Azure para BCDR con regiones emparejadas</t>
+          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1175,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1186,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad y recuperación ante desastres</t>
+          <t>Identidad y acceso</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Protección de datos</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Al usar Azure Backup, tenga en cuenta los diferentes tipos de copia de seguridad (GRS, ZRS Y LRS) ya que la configuración predeterminada es GRS</t>
+          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1213,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implementar para el acceso de emergencia o cuentas de vidrio roto para evitar el bloqueo de cuentas en todo el inquilino</t>
+          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1263,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1296,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un modelo RBAC para grupos de administración, suscripciones, grupos de recursos y recursos</t>
+          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1313,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1346,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Aplicar directivas de acceso condicional de Azure AD para cualquier usuario con derechos en entornos de Azure</t>
+          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1363,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1396,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Aplicar la autenticación multifactor para cualquier usuario con derechos en los entornos de Azure</t>
+          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1413,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Aplique responsabilidades centralizadas y delegadas para administrar los recursos implementados dentro de la zona de aterrizaje, en función de los requisitos de rol y seguridad</t>
+          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1463,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1496,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Aplicar Azure AD Privileged Identity Management (PIM) para establecer un acceso sin pie y privilegios mínimos</t>
+          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1513,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1546,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Utilice únicamente el tipo de autenticación Cuenta profesional o educativa para todos los tipos de cuenta. Evite usar la cuenta Microsoft</t>
+          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1563,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1596,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Utilice solo grupos para asignar permisos. Agregue grupos locales al grupo solo de Azure AD si ya hay un sistema de administración de grupos implementado.</t>
+          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1613,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1646,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar roles personalizados de Azure para los siguientes roles clave: propietario de la plataforma Azure, administración de red, operaciones de seguridad, propietario de la suscripción, propietario de la aplicación</t>
+          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1663,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Si existen requisitos de soberanía de datos, se pueden implementar directivas de Azure para aplicarlos</t>
+          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1713,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1746,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Si Azure Active Directory Domains Services (AADDS) está en uso, implemente AADDS dentro de la región principal, ya que este servicio solo se puede proyectar en una suscripción.</t>
+          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1768,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1796,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Si AADDS está en uso, evalúe la compatibilidad de todas las cargas de trabajo</t>
+          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1813,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1846,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Si AD en Windows Server está en uso, ¿pueden todos los recursos necesarios acceder al controlador de dominio correcto?</t>
+          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1863,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar Azure AD Application Proxy como reemplazo de VPN o proxy inverso para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas (hospedadas en la nube o localmente).</t>
+          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1913,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1936,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identidad y acceso</t>
+          <t>Grupo de administración y suscripciones</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Suscripciones</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Evite usar cuentas sincronizadas locales para las asignaciones de roles de Azure AD.</t>
+          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1963,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1996,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Aplique una jerarquía de grupos de administración razonablemente plana con no más de tres o cuatro niveles, idealmente</t>
+          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +2013,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Aplicación o anexión de etiquetas de recursos a través de Azure Policy</t>
+          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2063,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2096,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de espacio aislado para permitir a los usuarios experimentar inmediatamente con Azure</t>
+          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2125,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2146,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de un grupo de administración de plataforma en el grupo de administración raíz para admitir la directiva de plataforma común y la asignación de roles de Azure</t>
+          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2175,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2196,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Aplique una suscripción de conectividad dedicada en el grupo de administración de plataforma para hospedar un concentrador WAN virtual de Azure, un sistema de nombres de dominio (DNS) privado, un circuito ExpressRoute y otros recursos de red.</t>
+          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2213,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2241,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Exigir que no se coloquen suscripciones en el grupo de administración raíz</t>
+          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2258,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Exigir que solo los usuarios con privilegios puedan operar grupos de administración en el inquilino habilitando la autorización RBAC de Azure en la configuración de la jerarquía de grupos de administración</t>
+          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2303,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2311,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2332,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Aplique grupos de administración bajo el grupo de administración de nivel raíz para representar los tipos de cargas de trabajo, en función de sus necesidades de seguridad, cumplimiento, conectividad y características.</t>
+          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2357,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2378,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Aplique un proceso para que los propietarios de recursos conozcan sus roles y responsabilidades, acceda a la revisión, la revisión del presupuesto, el cumplimiento de las políticas y corrija cuando sea necesario.</t>
+          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2395,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2403,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2424,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que todos los propietarios de suscripciones y el equipo central de TI conozcan las limitaciones de recursos de suscripción como parte de las sesiones de diseño de cargas de trabajo.</t>
+          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2441,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Utilice instancias reservadas cuando corresponda para optimizar los costos y garantizar la capacidad disponible en las regiones de destino. Explique el uso de SKU de máquina virtual de instancia reservada adquiridas a través de Azure Policy.</t>
+          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2491,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2524,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un panel, un libro de trabajo o un proceso manual para supervisar los niveles de capacidad utilizados</t>
+          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2541,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2574,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los servicios y características necesarios estén disponibles dentro de las regiones de implementación elegidas</t>
+          <t>Aplicar un proceso para la gestión de costos</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2591,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2624,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Aplicar un proceso para la gestión de costos</t>
+          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2641,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Si AD es Windows Server, establezca una suscripción de identidad dedicada en el grupo de administración de plataforma para hospedar controladores de dominio de Windows Server Active Directory</t>
+          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2691,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2714,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Grupo de administración y suscripciones</t>
+          <t>Gestión y Monitoreo</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Suscripciones</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las etiquetas se utilizan para la facturación y la gestión de costos</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2741,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2770,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door. Revise regularmente los registros para comprobar si hay ataques y detecciones de falsos positivos.</t>
+          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2787,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2795,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2811,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Envíe los registros de Azure Front Door a Microsoft Sentinel. Detecte ataques e integre la telemetría de puerta principal en su entorno general de Azure.</t>
+          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2833,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2866,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use un único área de trabajo de registros de monitor para administrar plataformas de forma centralizada, excepto donde el control de acceso basado en rol de Azure (RBAC de Azure), los requisitos de soberanía de datos o las directivas de retención de datos exijan áreas de trabajo independientes.</t>
+          <t>¿Está documentada la zona de aterrizaje?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2881,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2908,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>¿Está documentada la zona de aterrizaje?</t>
+          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2923,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2958,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Exporte registros a Azure Storage si los requisitos de retención de registros superan los dos años. Utilice el almacenamiento inmutable con una política de escritura única y lectura múltiple para que los datos no se puedan borrar ni modificar durante un intervalo especificado por el usuario.</t>
+          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2987,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy para el control de acceso y los informes de cumplimiento. Azure Policy proporciona la capacidad de aplicar la configuración de toda la organización para garantizar el cumplimiento coherente de las directivas y la detección rápida de infracciones. </t>
+          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +3025,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3058,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Supervise la desviación de la configuración de la máquina virtual (VM) invitada mediante Azure Policy. Habilitar las capacidades de auditoría de configuración de invitados a través de políticas ayuda a las cargas de trabajo del equipo de aplicaciones a consumir inmediatamente las capacidades de las características con poco esfuerzo.</t>
+          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3075,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3108,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management en Azure Automation como mecanismo de revisión a largo plazo para máquinas virtuales Windows y Linux. </t>
+          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3125,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Usar Network Watcher para supervisar de forma proactiva los flujos de tráfico</t>
+          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3175,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3208,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Utilice bloqueos de recursos para evitar la eliminación accidental de servicios compartidos críticos.</t>
+          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3225,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3254,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use directivas de denegación para complementar las asignaciones de roles de Azure. La combinación de directivas de denegación y asignaciones de roles de Azure garantiza que existan las barreras de protección adecuadas para exigir quién puede implementar y configurar recursos y qué recursos pueden implementar y configurar.</t>
+          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3271,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3279,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Incluya eventos de estado de servicio y recursos como parte de la solución general de supervisión de la plataforma. El seguimiento del estado del servicio y de los recursos desde la perspectiva de la plataforma es un componente importante de la administración de recursos en Azure.</t>
+          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3317,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Incluir alertas y grupos de acción como parte de la plataforma Azure Service Health para garantizar que se puedan realizar acciones en las alertas o los problemas.</t>
+          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3362,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3370,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>No envíe entradas de registro sin procesar a los sistemas de supervisión locales. En su lugar, adopte el principio de que los datos nacidos en Azure permanezcan en Azure. Si se requiere la integración de SIEM local, envíe alertas críticas en lugar de registros.</t>
+          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3408,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use un área de trabajo centralizada de Azure Monitor Log Analytics para recopilar registros y métricas de los recursos de aplicaciones de IaaS y PaaS y controlar el acceso al registro con RBAC de Azure.</t>
+          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3453,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use los registros de Azure Monitor para obtener información e informes.</t>
+          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3498,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea necesario, use cuentas de almacenamiento compartido dentro de la zona de aterrizaje para el almacenamiento del registro de extensión de diagnóstico de Azure.</t>
+          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3543,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use alertas de Azure Monitor para la generación de alertas operativas.</t>
+          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3588,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery para escenarios de recuperación ante desastres de Azure a Azure Virtual Machines. Esto le permite replicar cargas de trabajo entre regiones.</t>
+          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3633,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de usar y probar las capacidades nativas de recuperación ante desastres del servicio PaaS.</t>
+          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3678,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use funcionalidades de copia de seguridad nativas de Azure. Compruebe que el asociado/cliente conoce Azure Backup y todas las nuevas funcionalidades, lo que puede simplificar enormemente la administración de copias de seguridad</t>
+          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3723,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se han evaluado los requisitos de supervisión y que se aplican las configuraciones adecuadas de recopilación de datos y alertas.</t>
+          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3776,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3787,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Gestión y Monitoreo</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Considerar las regiones admitidas para el área de trabajo de Log Analytics vinculada y las cuentas de automatización</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3814,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3822,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
